--- a/Project1/Project1/ギミック確認.xlsx
+++ b/Project1/Project1/ギミック確認.xlsx
@@ -19,10 +19,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -30,13 +30,6 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -56,9 +49,24 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -71,10 +79,56 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -94,53 +148,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -154,24 +162,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,7 +193,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -205,43 +241,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -259,13 +277,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -277,61 +301,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,25 +313,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,6 +332,48 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,17 +402,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -441,32 +441,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -485,6 +459,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -499,153 +484,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1015,10 +1015,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:CV10"/>
+  <dimension ref="A1:CV17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="AK27" sqref="AK27"/>
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -4045,6 +4045,1522 @@
       <c r="CV10" s="1">
         <v>1</v>
       </c>
+    </row>
+    <row r="11" ht="21" customHeight="1" spans="1:100">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1">
+        <v>1</v>
+      </c>
+      <c r="N11" s="1">
+        <v>1</v>
+      </c>
+      <c r="O11" s="1">
+        <v>1</v>
+      </c>
+      <c r="P11" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>0</v>
+      </c>
+      <c r="R11" s="1">
+        <v>0</v>
+      </c>
+      <c r="S11" s="1">
+        <v>1</v>
+      </c>
+      <c r="T11" s="1">
+        <v>1</v>
+      </c>
+      <c r="U11" s="1">
+        <v>1</v>
+      </c>
+      <c r="V11" s="1">
+        <v>1</v>
+      </c>
+      <c r="W11" s="1">
+        <v>1</v>
+      </c>
+      <c r="X11" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AZ11" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA11" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB11" s="1">
+        <v>1</v>
+      </c>
+      <c r="BC11" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD11" s="1">
+        <v>1</v>
+      </c>
+      <c r="BE11" s="1">
+        <v>1</v>
+      </c>
+      <c r="BF11" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG11" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH11" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI11" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ11" s="1">
+        <v>1</v>
+      </c>
+      <c r="BK11" s="1">
+        <v>1</v>
+      </c>
+      <c r="BL11" s="1">
+        <v>1</v>
+      </c>
+      <c r="BM11" s="1">
+        <v>1</v>
+      </c>
+      <c r="BN11" s="1">
+        <v>1</v>
+      </c>
+      <c r="BO11" s="1">
+        <v>1</v>
+      </c>
+      <c r="BP11" s="1">
+        <v>1</v>
+      </c>
+      <c r="BQ11" s="1">
+        <v>1</v>
+      </c>
+      <c r="BR11" s="1">
+        <v>1</v>
+      </c>
+      <c r="BS11" s="1">
+        <v>1</v>
+      </c>
+      <c r="BT11" s="1">
+        <v>1</v>
+      </c>
+      <c r="BU11" s="1">
+        <v>1</v>
+      </c>
+      <c r="BV11" s="1">
+        <v>1</v>
+      </c>
+      <c r="BW11" s="1">
+        <v>1</v>
+      </c>
+      <c r="BX11" s="1">
+        <v>1</v>
+      </c>
+      <c r="BY11" s="1">
+        <v>1</v>
+      </c>
+      <c r="BZ11" s="1">
+        <v>1</v>
+      </c>
+      <c r="CA11" s="1">
+        <v>1</v>
+      </c>
+      <c r="CB11" s="1">
+        <v>1</v>
+      </c>
+      <c r="CC11" s="1">
+        <v>1</v>
+      </c>
+      <c r="CD11" s="1">
+        <v>1</v>
+      </c>
+      <c r="CE11" s="1">
+        <v>1</v>
+      </c>
+      <c r="CF11" s="1">
+        <v>1</v>
+      </c>
+      <c r="CG11" s="1">
+        <v>1</v>
+      </c>
+      <c r="CH11" s="1">
+        <v>1</v>
+      </c>
+      <c r="CI11" s="1">
+        <v>1</v>
+      </c>
+      <c r="CJ11" s="1">
+        <v>1</v>
+      </c>
+      <c r="CK11" s="1">
+        <v>1</v>
+      </c>
+      <c r="CL11" s="1">
+        <v>1</v>
+      </c>
+      <c r="CM11" s="1">
+        <v>1</v>
+      </c>
+      <c r="CN11" s="1">
+        <v>1</v>
+      </c>
+      <c r="CO11" s="1">
+        <v>1</v>
+      </c>
+      <c r="CP11" s="1">
+        <v>1</v>
+      </c>
+      <c r="CQ11" s="1">
+        <v>1</v>
+      </c>
+      <c r="CR11" s="1">
+        <v>1</v>
+      </c>
+      <c r="CS11" s="1">
+        <v>1</v>
+      </c>
+      <c r="CT11" s="1">
+        <v>1</v>
+      </c>
+      <c r="CU11" s="1">
+        <v>1</v>
+      </c>
+      <c r="CV11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="21" customHeight="1" spans="1:100">
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1</v>
+      </c>
+      <c r="L12" s="1">
+        <v>1</v>
+      </c>
+      <c r="M12" s="1">
+        <v>1</v>
+      </c>
+      <c r="N12" s="1">
+        <v>1</v>
+      </c>
+      <c r="O12" s="1">
+        <v>1</v>
+      </c>
+      <c r="P12" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>0</v>
+      </c>
+      <c r="R12" s="1">
+        <v>0</v>
+      </c>
+      <c r="S12" s="1">
+        <v>1</v>
+      </c>
+      <c r="T12" s="1">
+        <v>1</v>
+      </c>
+      <c r="U12" s="1">
+        <v>1</v>
+      </c>
+      <c r="V12" s="1">
+        <v>1</v>
+      </c>
+      <c r="W12" s="1">
+        <v>1</v>
+      </c>
+      <c r="X12" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AZ12" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA12" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB12" s="1">
+        <v>1</v>
+      </c>
+      <c r="BC12" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD12" s="1">
+        <v>1</v>
+      </c>
+      <c r="BE12" s="1">
+        <v>1</v>
+      </c>
+      <c r="BF12" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG12" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH12" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI12" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ12" s="1">
+        <v>1</v>
+      </c>
+      <c r="BK12" s="1">
+        <v>1</v>
+      </c>
+      <c r="BL12" s="1">
+        <v>1</v>
+      </c>
+      <c r="BM12" s="1">
+        <v>1</v>
+      </c>
+      <c r="BN12" s="1">
+        <v>1</v>
+      </c>
+      <c r="BO12" s="1">
+        <v>1</v>
+      </c>
+      <c r="BP12" s="1">
+        <v>1</v>
+      </c>
+      <c r="BQ12" s="1">
+        <v>1</v>
+      </c>
+      <c r="BR12" s="1">
+        <v>1</v>
+      </c>
+      <c r="BS12" s="1">
+        <v>1</v>
+      </c>
+      <c r="BT12" s="1">
+        <v>1</v>
+      </c>
+      <c r="BU12" s="1">
+        <v>1</v>
+      </c>
+      <c r="BV12" s="1">
+        <v>1</v>
+      </c>
+      <c r="BW12" s="1">
+        <v>1</v>
+      </c>
+      <c r="BX12" s="1">
+        <v>1</v>
+      </c>
+      <c r="BY12" s="1">
+        <v>1</v>
+      </c>
+      <c r="BZ12" s="1">
+        <v>1</v>
+      </c>
+      <c r="CA12" s="1">
+        <v>1</v>
+      </c>
+      <c r="CB12" s="1">
+        <v>1</v>
+      </c>
+      <c r="CC12" s="1">
+        <v>1</v>
+      </c>
+      <c r="CD12" s="1">
+        <v>1</v>
+      </c>
+      <c r="CE12" s="1">
+        <v>1</v>
+      </c>
+      <c r="CF12" s="1">
+        <v>1</v>
+      </c>
+      <c r="CG12" s="1">
+        <v>1</v>
+      </c>
+      <c r="CH12" s="1">
+        <v>1</v>
+      </c>
+      <c r="CI12" s="1">
+        <v>1</v>
+      </c>
+      <c r="CJ12" s="1">
+        <v>1</v>
+      </c>
+      <c r="CK12" s="1">
+        <v>1</v>
+      </c>
+      <c r="CL12" s="1">
+        <v>1</v>
+      </c>
+      <c r="CM12" s="1">
+        <v>1</v>
+      </c>
+      <c r="CN12" s="1">
+        <v>1</v>
+      </c>
+      <c r="CO12" s="1">
+        <v>1</v>
+      </c>
+      <c r="CP12" s="1">
+        <v>1</v>
+      </c>
+      <c r="CQ12" s="1">
+        <v>1</v>
+      </c>
+      <c r="CR12" s="1">
+        <v>1</v>
+      </c>
+      <c r="CS12" s="1">
+        <v>1</v>
+      </c>
+      <c r="CT12" s="1">
+        <v>1</v>
+      </c>
+      <c r="CU12" s="1">
+        <v>1</v>
+      </c>
+      <c r="CV12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" ht="21" customHeight="1" spans="1:100">
+      <c r="A13" s="1">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1</v>
+      </c>
+      <c r="L13" s="1">
+        <v>1</v>
+      </c>
+      <c r="M13" s="1">
+        <v>1</v>
+      </c>
+      <c r="N13" s="1">
+        <v>1</v>
+      </c>
+      <c r="O13" s="1">
+        <v>1</v>
+      </c>
+      <c r="P13" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>0</v>
+      </c>
+      <c r="R13" s="1">
+        <v>0</v>
+      </c>
+      <c r="S13" s="1">
+        <v>1</v>
+      </c>
+      <c r="T13" s="1">
+        <v>1</v>
+      </c>
+      <c r="U13" s="1">
+        <v>1</v>
+      </c>
+      <c r="V13" s="1">
+        <v>1</v>
+      </c>
+      <c r="W13" s="1">
+        <v>1</v>
+      </c>
+      <c r="X13" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AZ13" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA13" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB13" s="1">
+        <v>1</v>
+      </c>
+      <c r="BC13" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD13" s="1">
+        <v>1</v>
+      </c>
+      <c r="BE13" s="1">
+        <v>1</v>
+      </c>
+      <c r="BF13" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG13" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH13" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI13" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ13" s="1">
+        <v>1</v>
+      </c>
+      <c r="BK13" s="1">
+        <v>1</v>
+      </c>
+      <c r="BL13" s="1">
+        <v>1</v>
+      </c>
+      <c r="BM13" s="1">
+        <v>1</v>
+      </c>
+      <c r="BN13" s="1">
+        <v>1</v>
+      </c>
+      <c r="BO13" s="1">
+        <v>1</v>
+      </c>
+      <c r="BP13" s="1">
+        <v>1</v>
+      </c>
+      <c r="BQ13" s="1">
+        <v>1</v>
+      </c>
+      <c r="BR13" s="1">
+        <v>1</v>
+      </c>
+      <c r="BS13" s="1">
+        <v>1</v>
+      </c>
+      <c r="BT13" s="1">
+        <v>1</v>
+      </c>
+      <c r="BU13" s="1">
+        <v>1</v>
+      </c>
+      <c r="BV13" s="1">
+        <v>1</v>
+      </c>
+      <c r="BW13" s="1">
+        <v>1</v>
+      </c>
+      <c r="BX13" s="1">
+        <v>1</v>
+      </c>
+      <c r="BY13" s="1">
+        <v>1</v>
+      </c>
+      <c r="BZ13" s="1">
+        <v>1</v>
+      </c>
+      <c r="CA13" s="1">
+        <v>1</v>
+      </c>
+      <c r="CB13" s="1">
+        <v>1</v>
+      </c>
+      <c r="CC13" s="1">
+        <v>1</v>
+      </c>
+      <c r="CD13" s="1">
+        <v>1</v>
+      </c>
+      <c r="CE13" s="1">
+        <v>1</v>
+      </c>
+      <c r="CF13" s="1">
+        <v>1</v>
+      </c>
+      <c r="CG13" s="1">
+        <v>1</v>
+      </c>
+      <c r="CH13" s="1">
+        <v>1</v>
+      </c>
+      <c r="CI13" s="1">
+        <v>1</v>
+      </c>
+      <c r="CJ13" s="1">
+        <v>1</v>
+      </c>
+      <c r="CK13" s="1">
+        <v>1</v>
+      </c>
+      <c r="CL13" s="1">
+        <v>1</v>
+      </c>
+      <c r="CM13" s="1">
+        <v>1</v>
+      </c>
+      <c r="CN13" s="1">
+        <v>1</v>
+      </c>
+      <c r="CO13" s="1">
+        <v>1</v>
+      </c>
+      <c r="CP13" s="1">
+        <v>1</v>
+      </c>
+      <c r="CQ13" s="1">
+        <v>1</v>
+      </c>
+      <c r="CR13" s="1">
+        <v>1</v>
+      </c>
+      <c r="CS13" s="1">
+        <v>1</v>
+      </c>
+      <c r="CT13" s="1">
+        <v>1</v>
+      </c>
+      <c r="CU13" s="1">
+        <v>1</v>
+      </c>
+      <c r="CV13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" ht="21" customHeight="1" spans="1:100">
+      <c r="A14" s="1">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1</v>
+      </c>
+      <c r="K14" s="1">
+        <v>1</v>
+      </c>
+      <c r="L14" s="1">
+        <v>1</v>
+      </c>
+      <c r="M14" s="1">
+        <v>1</v>
+      </c>
+      <c r="N14" s="1">
+        <v>1</v>
+      </c>
+      <c r="O14" s="1">
+        <v>1</v>
+      </c>
+      <c r="P14" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>0</v>
+      </c>
+      <c r="R14" s="1">
+        <v>0</v>
+      </c>
+      <c r="S14" s="1">
+        <v>1</v>
+      </c>
+      <c r="T14" s="1">
+        <v>1</v>
+      </c>
+      <c r="U14" s="1">
+        <v>1</v>
+      </c>
+      <c r="V14" s="1">
+        <v>1</v>
+      </c>
+      <c r="W14" s="1">
+        <v>1</v>
+      </c>
+      <c r="X14" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AZ14" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA14" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB14" s="1">
+        <v>1</v>
+      </c>
+      <c r="BC14" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD14" s="1">
+        <v>1</v>
+      </c>
+      <c r="BE14" s="1">
+        <v>1</v>
+      </c>
+      <c r="BF14" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG14" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH14" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI14" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ14" s="1">
+        <v>1</v>
+      </c>
+      <c r="BK14" s="1">
+        <v>1</v>
+      </c>
+      <c r="BL14" s="1">
+        <v>1</v>
+      </c>
+      <c r="BM14" s="1">
+        <v>1</v>
+      </c>
+      <c r="BN14" s="1">
+        <v>1</v>
+      </c>
+      <c r="BO14" s="1">
+        <v>1</v>
+      </c>
+      <c r="BP14" s="1">
+        <v>1</v>
+      </c>
+      <c r="BQ14" s="1">
+        <v>1</v>
+      </c>
+      <c r="BR14" s="1">
+        <v>1</v>
+      </c>
+      <c r="BS14" s="1">
+        <v>1</v>
+      </c>
+      <c r="BT14" s="1">
+        <v>1</v>
+      </c>
+      <c r="BU14" s="1">
+        <v>1</v>
+      </c>
+      <c r="BV14" s="1">
+        <v>1</v>
+      </c>
+      <c r="BW14" s="1">
+        <v>1</v>
+      </c>
+      <c r="BX14" s="1">
+        <v>1</v>
+      </c>
+      <c r="BY14" s="1">
+        <v>1</v>
+      </c>
+      <c r="BZ14" s="1">
+        <v>1</v>
+      </c>
+      <c r="CA14" s="1">
+        <v>1</v>
+      </c>
+      <c r="CB14" s="1">
+        <v>1</v>
+      </c>
+      <c r="CC14" s="1">
+        <v>1</v>
+      </c>
+      <c r="CD14" s="1">
+        <v>1</v>
+      </c>
+      <c r="CE14" s="1">
+        <v>1</v>
+      </c>
+      <c r="CF14" s="1">
+        <v>1</v>
+      </c>
+      <c r="CG14" s="1">
+        <v>1</v>
+      </c>
+      <c r="CH14" s="1">
+        <v>1</v>
+      </c>
+      <c r="CI14" s="1">
+        <v>1</v>
+      </c>
+      <c r="CJ14" s="1">
+        <v>1</v>
+      </c>
+      <c r="CK14" s="1">
+        <v>1</v>
+      </c>
+      <c r="CL14" s="1">
+        <v>1</v>
+      </c>
+      <c r="CM14" s="1">
+        <v>1</v>
+      </c>
+      <c r="CN14" s="1">
+        <v>1</v>
+      </c>
+      <c r="CO14" s="1">
+        <v>1</v>
+      </c>
+      <c r="CP14" s="1">
+        <v>1</v>
+      </c>
+      <c r="CQ14" s="1">
+        <v>1</v>
+      </c>
+      <c r="CR14" s="1">
+        <v>1</v>
+      </c>
+      <c r="CS14" s="1">
+        <v>1</v>
+      </c>
+      <c r="CT14" s="1">
+        <v>1</v>
+      </c>
+      <c r="CU14" s="1">
+        <v>1</v>
+      </c>
+      <c r="CV14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" ht="21" customHeight="1" spans="1:100">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1</v>
+      </c>
+      <c r="K15" s="1">
+        <v>1</v>
+      </c>
+      <c r="L15" s="1">
+        <v>1</v>
+      </c>
+      <c r="M15" s="1">
+        <v>1</v>
+      </c>
+      <c r="N15" s="1">
+        <v>1</v>
+      </c>
+      <c r="O15" s="1">
+        <v>1</v>
+      </c>
+      <c r="P15" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>0</v>
+      </c>
+      <c r="R15" s="1">
+        <v>0</v>
+      </c>
+      <c r="S15" s="1">
+        <v>1</v>
+      </c>
+      <c r="T15" s="1">
+        <v>1</v>
+      </c>
+      <c r="U15" s="1">
+        <v>1</v>
+      </c>
+      <c r="V15" s="1">
+        <v>1</v>
+      </c>
+      <c r="W15" s="1">
+        <v>1</v>
+      </c>
+      <c r="X15" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AZ15" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA15" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB15" s="1">
+        <v>1</v>
+      </c>
+      <c r="BC15" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD15" s="1">
+        <v>1</v>
+      </c>
+      <c r="BE15" s="1">
+        <v>1</v>
+      </c>
+      <c r="BF15" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG15" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH15" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI15" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ15" s="1">
+        <v>1</v>
+      </c>
+      <c r="BK15" s="1">
+        <v>1</v>
+      </c>
+      <c r="BL15" s="1">
+        <v>1</v>
+      </c>
+      <c r="BM15" s="1">
+        <v>1</v>
+      </c>
+      <c r="BN15" s="1">
+        <v>1</v>
+      </c>
+      <c r="BO15" s="1">
+        <v>1</v>
+      </c>
+      <c r="BP15" s="1">
+        <v>1</v>
+      </c>
+      <c r="BQ15" s="1">
+        <v>1</v>
+      </c>
+      <c r="BR15" s="1">
+        <v>1</v>
+      </c>
+      <c r="BS15" s="1">
+        <v>1</v>
+      </c>
+      <c r="BT15" s="1">
+        <v>1</v>
+      </c>
+      <c r="BU15" s="1">
+        <v>1</v>
+      </c>
+      <c r="BV15" s="1">
+        <v>1</v>
+      </c>
+      <c r="BW15" s="1">
+        <v>1</v>
+      </c>
+      <c r="BX15" s="1">
+        <v>1</v>
+      </c>
+      <c r="BY15" s="1">
+        <v>1</v>
+      </c>
+      <c r="BZ15" s="1">
+        <v>1</v>
+      </c>
+      <c r="CA15" s="1">
+        <v>1</v>
+      </c>
+      <c r="CB15" s="1">
+        <v>1</v>
+      </c>
+      <c r="CC15" s="1">
+        <v>1</v>
+      </c>
+      <c r="CD15" s="1">
+        <v>1</v>
+      </c>
+      <c r="CE15" s="1">
+        <v>1</v>
+      </c>
+      <c r="CF15" s="1">
+        <v>1</v>
+      </c>
+      <c r="CG15" s="1">
+        <v>1</v>
+      </c>
+      <c r="CH15" s="1">
+        <v>1</v>
+      </c>
+      <c r="CI15" s="1">
+        <v>1</v>
+      </c>
+      <c r="CJ15" s="1">
+        <v>1</v>
+      </c>
+      <c r="CK15" s="1">
+        <v>1</v>
+      </c>
+      <c r="CL15" s="1">
+        <v>1</v>
+      </c>
+      <c r="CM15" s="1">
+        <v>1</v>
+      </c>
+      <c r="CN15" s="1">
+        <v>1</v>
+      </c>
+      <c r="CO15" s="1">
+        <v>1</v>
+      </c>
+      <c r="CP15" s="1">
+        <v>1</v>
+      </c>
+      <c r="CQ15" s="1">
+        <v>1</v>
+      </c>
+      <c r="CR15" s="1">
+        <v>1</v>
+      </c>
+      <c r="CS15" s="1">
+        <v>1</v>
+      </c>
+      <c r="CT15" s="1">
+        <v>1</v>
+      </c>
+      <c r="CU15" s="1">
+        <v>1</v>
+      </c>
+      <c r="CV15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="J9">
@@ -4055,7 +5571,7 @@
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:AX10">
+  <conditionalFormatting sqref="A1:AX10 A11:CV15 A16:A17">
     <cfRule type="cellIs" dxfId="2" priority="9" operator="equal">
       <formula>3</formula>
     </cfRule>

--- a/Project1/Project1/ギミック確認.xlsx
+++ b/Project1/Project1/ギミック確認.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18551" windowHeight="9900"/>
+    <workbookView windowWidth="18551" windowHeight="9492"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -34,22 +34,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -64,9 +56,54 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -75,6 +112,14 @@
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -94,61 +139,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,13 +154,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -177,8 +162,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,7 +193,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -205,7 +211,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -217,7 +223,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -229,7 +313,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -241,7 +325,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -253,127 +367,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,6 +402,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -413,15 +422,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -443,9 +443,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -453,19 +470,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -485,17 +491,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,148 +504,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -708,7 +708,7 @@
     <cellStyle name="40% - アクセント 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - アクセント 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -723,6 +723,13 @@
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray125">
+          <bgColor theme="0" tint="-0.05"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1018,7 +1025,7 @@
   <dimension ref="A1:CV17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+      <selection activeCell="V23" sqref="V23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -4081,19 +4088,19 @@
         <v>1</v>
       </c>
       <c r="L11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="1">
         <v>0</v>
@@ -4383,19 +4390,19 @@
         <v>1</v>
       </c>
       <c r="L12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="1">
         <v>0</v>
@@ -4685,19 +4692,19 @@
         <v>1</v>
       </c>
       <c r="L13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="1">
         <v>0</v>
@@ -4987,19 +4994,19 @@
         <v>1</v>
       </c>
       <c r="L14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="1">
         <v>0</v>
@@ -5289,19 +5296,19 @@
         <v>1</v>
       </c>
       <c r="L15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="1">
         <v>0</v>
@@ -5556,40 +5563,344 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="1"/>
+    <row r="16" ht="21" customHeight="1" spans="1:100">
+      <c r="A16" s="1">
+        <v>99</v>
+      </c>
+      <c r="B16" s="1">
+        <v>99</v>
+      </c>
+      <c r="C16" s="1">
+        <v>99</v>
+      </c>
+      <c r="D16" s="1">
+        <v>99</v>
+      </c>
+      <c r="E16" s="1">
+        <v>99</v>
+      </c>
+      <c r="F16" s="1">
+        <v>99</v>
+      </c>
+      <c r="G16" s="1">
+        <v>99</v>
+      </c>
+      <c r="H16" s="1">
+        <v>99</v>
+      </c>
+      <c r="I16" s="1">
+        <v>99</v>
+      </c>
+      <c r="J16" s="1">
+        <v>99</v>
+      </c>
+      <c r="K16" s="1">
+        <v>99</v>
+      </c>
+      <c r="L16" s="1">
+        <v>99</v>
+      </c>
+      <c r="M16" s="1">
+        <v>99</v>
+      </c>
+      <c r="N16" s="1">
+        <v>99</v>
+      </c>
+      <c r="O16" s="1">
+        <v>99</v>
+      </c>
+      <c r="P16" s="1">
+        <v>99</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>99</v>
+      </c>
+      <c r="R16" s="1">
+        <v>99</v>
+      </c>
+      <c r="S16" s="1">
+        <v>99</v>
+      </c>
+      <c r="T16" s="1">
+        <v>99</v>
+      </c>
+      <c r="U16" s="1">
+        <v>99</v>
+      </c>
+      <c r="V16" s="1">
+        <v>99</v>
+      </c>
+      <c r="W16" s="1">
+        <v>99</v>
+      </c>
+      <c r="X16" s="1">
+        <v>99</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>99</v>
+      </c>
+      <c r="Z16" s="1">
+        <v>99</v>
+      </c>
+      <c r="AA16" s="1">
+        <v>99</v>
+      </c>
+      <c r="AB16" s="1">
+        <v>99</v>
+      </c>
+      <c r="AC16" s="1">
+        <v>99</v>
+      </c>
+      <c r="AD16" s="1">
+        <v>99</v>
+      </c>
+      <c r="AE16" s="1">
+        <v>99</v>
+      </c>
+      <c r="AF16" s="1">
+        <v>99</v>
+      </c>
+      <c r="AG16" s="1">
+        <v>99</v>
+      </c>
+      <c r="AH16" s="1">
+        <v>99</v>
+      </c>
+      <c r="AI16" s="1">
+        <v>99</v>
+      </c>
+      <c r="AJ16" s="1">
+        <v>99</v>
+      </c>
+      <c r="AK16" s="1">
+        <v>99</v>
+      </c>
+      <c r="AL16" s="1">
+        <v>99</v>
+      </c>
+      <c r="AM16" s="1">
+        <v>99</v>
+      </c>
+      <c r="AN16" s="1">
+        <v>99</v>
+      </c>
+      <c r="AO16" s="1">
+        <v>99</v>
+      </c>
+      <c r="AP16" s="1">
+        <v>99</v>
+      </c>
+      <c r="AQ16" s="1">
+        <v>99</v>
+      </c>
+      <c r="AR16" s="1">
+        <v>99</v>
+      </c>
+      <c r="AS16" s="1">
+        <v>99</v>
+      </c>
+      <c r="AT16" s="1">
+        <v>99</v>
+      </c>
+      <c r="AU16" s="1">
+        <v>99</v>
+      </c>
+      <c r="AV16" s="1">
+        <v>99</v>
+      </c>
+      <c r="AW16" s="1">
+        <v>99</v>
+      </c>
+      <c r="AX16" s="1">
+        <v>99</v>
+      </c>
+      <c r="AY16" s="1">
+        <v>99</v>
+      </c>
+      <c r="AZ16" s="1">
+        <v>99</v>
+      </c>
+      <c r="BA16" s="1">
+        <v>99</v>
+      </c>
+      <c r="BB16" s="1">
+        <v>99</v>
+      </c>
+      <c r="BC16" s="1">
+        <v>99</v>
+      </c>
+      <c r="BD16" s="1">
+        <v>99</v>
+      </c>
+      <c r="BE16" s="1">
+        <v>99</v>
+      </c>
+      <c r="BF16" s="1">
+        <v>99</v>
+      </c>
+      <c r="BG16" s="1">
+        <v>99</v>
+      </c>
+      <c r="BH16" s="1">
+        <v>99</v>
+      </c>
+      <c r="BI16" s="1">
+        <v>99</v>
+      </c>
+      <c r="BJ16" s="1">
+        <v>99</v>
+      </c>
+      <c r="BK16" s="1">
+        <v>99</v>
+      </c>
+      <c r="BL16" s="1">
+        <v>99</v>
+      </c>
+      <c r="BM16" s="1">
+        <v>99</v>
+      </c>
+      <c r="BN16" s="1">
+        <v>99</v>
+      </c>
+      <c r="BO16" s="1">
+        <v>99</v>
+      </c>
+      <c r="BP16" s="1">
+        <v>99</v>
+      </c>
+      <c r="BQ16" s="1">
+        <v>99</v>
+      </c>
+      <c r="BR16" s="1">
+        <v>99</v>
+      </c>
+      <c r="BS16" s="1">
+        <v>99</v>
+      </c>
+      <c r="BT16" s="1">
+        <v>99</v>
+      </c>
+      <c r="BU16" s="1">
+        <v>99</v>
+      </c>
+      <c r="BV16" s="1">
+        <v>99</v>
+      </c>
+      <c r="BW16" s="1">
+        <v>99</v>
+      </c>
+      <c r="BX16" s="1">
+        <v>99</v>
+      </c>
+      <c r="BY16" s="1">
+        <v>99</v>
+      </c>
+      <c r="BZ16" s="1">
+        <v>99</v>
+      </c>
+      <c r="CA16" s="1">
+        <v>99</v>
+      </c>
+      <c r="CB16" s="1">
+        <v>99</v>
+      </c>
+      <c r="CC16" s="1">
+        <v>99</v>
+      </c>
+      <c r="CD16" s="1">
+        <v>99</v>
+      </c>
+      <c r="CE16" s="1">
+        <v>99</v>
+      </c>
+      <c r="CF16" s="1">
+        <v>99</v>
+      </c>
+      <c r="CG16" s="1">
+        <v>99</v>
+      </c>
+      <c r="CH16" s="1">
+        <v>99</v>
+      </c>
+      <c r="CI16" s="1">
+        <v>99</v>
+      </c>
+      <c r="CJ16" s="1">
+        <v>99</v>
+      </c>
+      <c r="CK16" s="1">
+        <v>99</v>
+      </c>
+      <c r="CL16" s="1">
+        <v>99</v>
+      </c>
+      <c r="CM16" s="1">
+        <v>99</v>
+      </c>
+      <c r="CN16" s="1">
+        <v>99</v>
+      </c>
+      <c r="CO16" s="1">
+        <v>99</v>
+      </c>
+      <c r="CP16" s="1">
+        <v>99</v>
+      </c>
+      <c r="CQ16" s="1">
+        <v>99</v>
+      </c>
+      <c r="CR16" s="1">
+        <v>99</v>
+      </c>
+      <c r="CS16" s="1">
+        <v>99</v>
+      </c>
+      <c r="CT16" s="1">
+        <v>99</v>
+      </c>
+      <c r="CU16" s="1">
+        <v>99</v>
+      </c>
+      <c r="CV16" s="1">
+        <v>99</v>
+      </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="J9">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:AX10 A11:CV15 A16:A17">
-    <cfRule type="cellIs" dxfId="2" priority="9" operator="equal">
+  <conditionalFormatting sqref="A16:CV16">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>99</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:AX10 A11:CV15 A16:A17 B16:CV16">
+    <cfRule type="cellIs" dxfId="3" priority="10" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="11" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY1:CV10">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Project1/Project1/ギミック確認.xlsx
+++ b/Project1/Project1/ギミック確認.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA2B\source\repos\Rain-cloud-friends\Project1\Project1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="18551" windowHeight="9492"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18555" windowHeight="9495"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,14 +22,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -33,352 +32,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -401,251 +69,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -657,79 +83,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="桁区切り[0]" xfId="1" builtinId="6"/>
-    <cellStyle name="入力" xfId="2" builtinId="20"/>
-    <cellStyle name="桁区切り" xfId="3" builtinId="3"/>
-    <cellStyle name="通貨[0]" xfId="4" builtinId="7"/>
-    <cellStyle name="40% - アクセント 5" xfId="5" builtinId="47"/>
-    <cellStyle name="通貨" xfId="6" builtinId="4"/>
-    <cellStyle name="20% - アクセント 4" xfId="7" builtinId="42"/>
-    <cellStyle name="メモ" xfId="8" builtinId="10"/>
-    <cellStyle name="パーセント" xfId="9" builtinId="5"/>
-    <cellStyle name="ハイパーリンク" xfId="10" builtinId="8"/>
-    <cellStyle name="アクセント 2" xfId="11" builtinId="33"/>
-    <cellStyle name="訪問済ハイパーリンク" xfId="12" builtinId="9"/>
-    <cellStyle name="良い" xfId="13" builtinId="26"/>
-    <cellStyle name="警告文" xfId="14" builtinId="11"/>
-    <cellStyle name="リンクセル" xfId="15" builtinId="24"/>
-    <cellStyle name="タイトル" xfId="16" builtinId="15"/>
-    <cellStyle name="説明文" xfId="17" builtinId="53"/>
-    <cellStyle name="アクセント 6" xfId="18" builtinId="49"/>
-    <cellStyle name="出力" xfId="19" builtinId="21"/>
-    <cellStyle name="見出し 1" xfId="20" builtinId="16"/>
-    <cellStyle name="見出し 2" xfId="21" builtinId="17"/>
-    <cellStyle name="計算" xfId="22" builtinId="22"/>
-    <cellStyle name="見出し 3" xfId="23" builtinId="18"/>
-    <cellStyle name="見出し 4" xfId="24" builtinId="19"/>
-    <cellStyle name="60% - アクセント 5" xfId="25" builtinId="48"/>
-    <cellStyle name="チェックセル" xfId="26" builtinId="23"/>
-    <cellStyle name="40% - アクセント 1" xfId="27" builtinId="31"/>
-    <cellStyle name="集計" xfId="28" builtinId="25"/>
-    <cellStyle name="悪い" xfId="29" builtinId="27"/>
-    <cellStyle name="どちらでもない" xfId="30" builtinId="28"/>
-    <cellStyle name="アクセント 1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - アクセント 1" xfId="32" builtinId="30"/>
-    <cellStyle name="20% - アクセント 5" xfId="33" builtinId="46"/>
-    <cellStyle name="60% - アクセント 1" xfId="34" builtinId="32"/>
-    <cellStyle name="20% - アクセント 2" xfId="35" builtinId="34"/>
-    <cellStyle name="40% - アクセント 2" xfId="36" builtinId="35"/>
-    <cellStyle name="20% - アクセント 6" xfId="37" builtinId="50"/>
-    <cellStyle name="60% - アクセント 2" xfId="38" builtinId="36"/>
-    <cellStyle name="アクセント 3" xfId="39" builtinId="37"/>
-    <cellStyle name="20% - アクセント 3" xfId="40" builtinId="38"/>
-    <cellStyle name="40% - アクセント 3" xfId="41" builtinId="39"/>
-    <cellStyle name="60% - アクセント 3" xfId="42" builtinId="40"/>
-    <cellStyle name="アクセント 4" xfId="43" builtinId="41"/>
-    <cellStyle name="40% - アクセント 4" xfId="44" builtinId="43"/>
-    <cellStyle name="60% - アクセント 4" xfId="45" builtinId="44"/>
-    <cellStyle name="アクセント 5" xfId="46" builtinId="45"/>
-    <cellStyle name="40% - アクセント 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - アクセント 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="9">
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor theme="0" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray125">
-          <bgColor theme="0" tint="-0.05"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -743,6 +111,13 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -750,7 +125,31 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.499984740745262"/>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray125">
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -759,6 +158,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1016,24 +418,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="V23" sqref="V23"/>
+      <selection activeCell="P23" sqref="O23:P23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="100" width="3.62962962962963" customWidth="1"/>
+    <col min="1" max="100" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21.75" customHeight="1" spans="1:100">
+    <row r="1" spans="1:100" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -1335,7 +737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="21.75" customHeight="1" spans="1:100">
+    <row r="2" spans="1:100" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1637,7 +1039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="21.75" customHeight="1" spans="1:100">
+    <row r="3" spans="1:100" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1939,7 +1341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" ht="21.75" customHeight="1" spans="1:100">
+    <row r="4" spans="1:100" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -2241,7 +1643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" ht="21.75" customHeight="1" spans="1:100">
+    <row r="5" spans="1:100" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -2543,7 +1945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="21.75" customHeight="1" spans="1:100">
+    <row r="6" spans="1:100" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -2845,7 +2247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" ht="21.75" customHeight="1" spans="1:100">
+    <row r="7" spans="1:100" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -3147,7 +2549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="21.75" customHeight="1" spans="1:100">
+    <row r="8" spans="1:100" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -3449,7 +2851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" ht="21.75" customHeight="1" spans="1:100">
+    <row r="9" spans="1:100" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -3751,7 +3153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" ht="21.75" customHeight="1" spans="1:100">
+    <row r="10" spans="1:100" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -4053,39 +3455,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" ht="21" customHeight="1" spans="1:100">
+    <row r="11" spans="1:100" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>1</v>
       </c>
       <c r="B11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" s="1">
         <v>0</v>
@@ -4109,285 +3511,285 @@
         <v>0</v>
       </c>
       <c r="S11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CM11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CP11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CR11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CS11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CT11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV11" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="12" ht="21" customHeight="1" spans="1:100">
+    <row r="12" spans="1:100" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>1</v>
       </c>
       <c r="B12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" s="1">
         <v>0</v>
@@ -4411,285 +3813,285 @@
         <v>0</v>
       </c>
       <c r="S12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CM12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CP12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CR12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CS12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CT12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV12" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="13" ht="21" customHeight="1" spans="1:100">
+    <row r="13" spans="1:100" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>1</v>
       </c>
       <c r="B13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" s="1">
         <v>0</v>
@@ -4713,285 +4115,285 @@
         <v>0</v>
       </c>
       <c r="S13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CM13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CP13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CR13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CS13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CT13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV13" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="14" ht="21" customHeight="1" spans="1:100">
+    <row r="14" spans="1:100" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>1</v>
       </c>
       <c r="B14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" s="1">
         <v>0</v>
@@ -5015,285 +4417,285 @@
         <v>0</v>
       </c>
       <c r="S14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CM14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CP14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CR14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CS14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CT14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV14" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="15" ht="21" customHeight="1" spans="1:100">
+    <row r="15" spans="1:100" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>1</v>
       </c>
       <c r="B15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" s="1">
         <v>0</v>
@@ -5317,253 +4719,253 @@
         <v>0</v>
       </c>
       <c r="S15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CM15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CP15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CR15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CS15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CT15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV15" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="16" ht="21" customHeight="1" spans="1:100">
+    <row r="16" spans="1:100" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>99</v>
       </c>
@@ -5865,47 +5267,47 @@
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="J9">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:CV16">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:AX10 A11:CV15 A16:A17 B16:CV16">
-    <cfRule type="cellIs" dxfId="3" priority="10" operator="equal">
+  <conditionalFormatting sqref="A1:AX10 B16:CV16 CV11:CV15 A11:A17">
+    <cfRule type="cellIs" dxfId="5" priority="10" operator="equal">
       <formula>3</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="4" priority="11" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY1:CV10">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+  <conditionalFormatting sqref="AY1:CV10 B11:CU15">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Project1/Project1/ギミック確認.xlsx
+++ b/Project1/Project1/ギミック確認.xlsx
@@ -86,7 +86,100 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="21">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray125">
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -426,8 +519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="P23" sqref="O23:P23"/>
+    <sheetView tabSelected="1" topLeftCell="AG1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="BK15" sqref="BK15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -757,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -868,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="AR2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
         <v>0</v>
@@ -883,7 +976,7 @@
         <v>0</v>
       </c>
       <c r="AW2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX2" s="1">
         <v>0</v>
@@ -1059,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" s="1">
         <v>0</v>
@@ -1170,10 +1263,10 @@
         <v>0</v>
       </c>
       <c r="AR3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
         <v>0</v>
@@ -1185,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="AW3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX3" s="1">
         <v>0</v>
@@ -1361,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" s="1">
         <v>0</v>
@@ -1400,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
         <v>0</v>
@@ -1457,10 +1550,10 @@
         <v>0</v>
       </c>
       <c r="AM4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
         <v>0</v>
@@ -1469,25 +1562,25 @@
         <v>0</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
         <v>0</v>
       </c>
       <c r="AU4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV4" s="1">
         <v>0</v>
       </c>
       <c r="AW4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX4" s="1">
         <v>0</v>
@@ -1663,7 +1756,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" s="1">
         <v>0</v>
@@ -1693,16 +1786,16 @@
         <v>0</v>
       </c>
       <c r="Q5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
         <v>0</v>
@@ -1723,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="AA5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB5" s="1">
         <v>0</v>
@@ -1756,13 +1849,13 @@
         <v>0</v>
       </c>
       <c r="AL5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
         <v>0</v>
@@ -1774,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="AR5" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AS5" s="1">
         <v>0</v>
@@ -1783,7 +1876,7 @@
         <v>0</v>
       </c>
       <c r="AU5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV5" s="1">
         <v>0</v>
@@ -1965,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="1">
         <v>0</v>
@@ -2025,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="AA6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="1">
         <v>0</v>
@@ -2058,40 +2151,40 @@
         <v>0</v>
       </c>
       <c r="AL6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX6" s="1">
         <v>1</v>
@@ -2267,7 +2360,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" s="1">
         <v>0</v>
@@ -2327,13 +2420,13 @@
         <v>0</v>
       </c>
       <c r="AA7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD7" s="1">
         <v>0</v>
@@ -2375,7 +2468,7 @@
         <v>0</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR7" s="1">
         <v>0</v>
@@ -2387,7 +2480,7 @@
         <v>0</v>
       </c>
       <c r="AU7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV7" s="1">
         <v>0</v>
@@ -2569,7 +2662,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" s="1">
         <v>0</v>
@@ -2584,16 +2677,16 @@
         <v>0</v>
       </c>
       <c r="L8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
         <v>0</v>
@@ -2617,10 +2710,10 @@
         <v>0</v>
       </c>
       <c r="W8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y8" s="1">
         <v>0</v>
@@ -2629,16 +2722,16 @@
         <v>0</v>
       </c>
       <c r="AA8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
         <v>0</v>
@@ -2880,7 +2973,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
         <v>0</v>
@@ -2931,19 +3024,19 @@
         <v>0</v>
       </c>
       <c r="AA9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF9" s="1">
         <v>0</v>
@@ -2952,7 +3045,7 @@
         <v>0</v>
       </c>
       <c r="AH9" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AI9" s="1">
         <v>0</v>
@@ -2970,10 +3063,10 @@
         <v>0</v>
       </c>
       <c r="AN9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP9" s="1">
         <v>0</v>
@@ -2985,7 +3078,7 @@
         <v>0</v>
       </c>
       <c r="AS9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
         <v>0</v>
@@ -2997,7 +3090,7 @@
         <v>0</v>
       </c>
       <c r="AW9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX9" s="1">
         <v>0</v>
@@ -3158,31 +3251,31 @@
         <v>1</v>
       </c>
       <c r="B10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
         <v>0</v>
@@ -3233,73 +3326,73 @@
         <v>0</v>
       </c>
       <c r="AA10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX10" s="1">
         <v>0</v>
@@ -3314,13 +3407,13 @@
         <v>1</v>
       </c>
       <c r="BB10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE10" s="1">
         <v>1</v>
@@ -3610,7 +3703,7 @@
         <v>0</v>
       </c>
       <c r="AZ11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA11" s="1">
         <v>0</v>
@@ -3891,25 +3984,25 @@
         <v>0</v>
       </c>
       <c r="AS12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT12" s="1">
         <v>0</v>
       </c>
       <c r="AU12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW12" s="1">
         <v>0</v>
       </c>
       <c r="AX12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ12" s="1">
         <v>0</v>
@@ -4190,7 +4283,7 @@
         <v>0</v>
       </c>
       <c r="AR13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS13" s="1">
         <v>0</v>
@@ -4393,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L14" s="1">
         <v>0</v>
@@ -4408,7 +4501,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q14" s="1">
         <v>0</v>
@@ -4417,7 +4510,7 @@
         <v>0</v>
       </c>
       <c r="S14" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="T14" s="1">
         <v>0</v>
@@ -4426,7 +4519,7 @@
         <v>0</v>
       </c>
       <c r="V14" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="W14" s="1">
         <v>0</v>
@@ -4435,7 +4528,7 @@
         <v>0</v>
       </c>
       <c r="Y14" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Z14" s="1">
         <v>0</v>
@@ -4444,7 +4537,7 @@
         <v>0</v>
       </c>
       <c r="AB14" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC14" s="1">
         <v>0</v>
@@ -4453,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AF14" s="1">
         <v>0</v>
@@ -4462,7 +4555,7 @@
         <v>0</v>
       </c>
       <c r="AH14" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AI14" s="1">
         <v>0</v>
@@ -4471,7 +4564,7 @@
         <v>0</v>
       </c>
       <c r="AK14" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AL14" s="1">
         <v>0</v>
@@ -4489,7 +4582,7 @@
         <v>0</v>
       </c>
       <c r="AQ14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR14" s="1">
         <v>0</v>
@@ -4668,127 +4761,127 @@
         <v>1</v>
       </c>
       <c r="B15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ15" s="1">
         <v>0</v>
@@ -5272,42 +5365,46 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="J9">
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A16:CV16">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:AX10 B16:CV16 CV11:CV15 A11:A17">
-    <cfRule type="cellIs" dxfId="5" priority="10" operator="equal">
+  <conditionalFormatting sqref="A1:AX1 B16:CV16 CV11:CV15 A2:A17 AX2:AX10 B15:AP15">
+    <cfRule type="cellIs" dxfId="8" priority="13" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="14" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="15" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY1:CV10 B11:CU15">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+  <conditionalFormatting sqref="B2:AW14 AQ15:AW15 AX11:CU15 AY1:CV10">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
       <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="between">
+      <formula>6</formula>
+      <formula>13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:CV16">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Project1/Project1/ギミック確認.xlsx
+++ b/Project1/Project1/ギミック確認.xlsx
@@ -86,7 +86,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="10">
     <dxf>
       <font>
         <color theme="0"/>
@@ -160,89 +160,6 @@
       <fill>
         <patternFill patternType="gray125">
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray125">
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -519,8 +436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="BK15" sqref="BK15"/>
+    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="AL7" sqref="AL7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2426,31 +2343,31 @@
         <v>0</v>
       </c>
       <c r="AC7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL7" s="1">
         <v>0</v>
@@ -3598,67 +3515,67 @@
         <v>0</v>
       </c>
       <c r="Q11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL11" s="1">
         <v>0</v>
@@ -4800,76 +4717,76 @@
         <v>1</v>
       </c>
       <c r="O15" s="1">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="P15" s="1">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="Q15" s="1">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="R15" s="1">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="S15" s="1">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="T15" s="1">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="U15" s="1">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="V15" s="1">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="W15" s="1">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="X15" s="1">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="Y15" s="1">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="Z15" s="1">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="AA15" s="1">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="AB15" s="1">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="AC15" s="1">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="AD15" s="1">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="AE15" s="1">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="AF15" s="1">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="AG15" s="1">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="AH15" s="1">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="AI15" s="1">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="AJ15" s="1">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="AK15" s="1">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="AL15" s="1">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="AM15" s="1">
         <v>1</v>
@@ -5381,7 +5298,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:AW14 AQ15:AW15 AX11:CU15 AY1:CV10">
+  <conditionalFormatting sqref="AQ15:AW15 AX11:CU15 AY1:CV10 B2:AW14">
     <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>3</formula>
     </cfRule>

--- a/Project1/Project1/ギミック確認.xlsx
+++ b/Project1/Project1/ギミック確認.xlsx
@@ -86,11 +86,12 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="22">
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.39991454817346722"/>
+          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -101,6 +102,96 @@
       <fill>
         <patternFill patternType="solid">
           <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray125">
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -434,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CX17"/>
+  <dimension ref="A1:CV16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AG1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="BY9" sqref="BY9"/>
+      <selection activeCell="CU19" sqref="CU19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -445,7 +536,7 @@
     <col min="1" max="100" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:102" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:100" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -747,7 +838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:102" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:100" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1049,7 +1140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:102" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:100" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1351,7 +1442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:102" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:100" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1653,7 +1744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:102" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:100" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1955,7 +2046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:102" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:100" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -2257,7 +2348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:102" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:100" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -2559,7 +2650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:102" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:100" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -2861,7 +2952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:102" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:100" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -3163,7 +3254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:102" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:100" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -3465,7 +3556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:102" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:100" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -3767,7 +3858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:102" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:100" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -4069,7 +4160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:102" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:100" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -4371,7 +4462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:102" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:100" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -4514,7 +4605,7 @@
         <v>0</v>
       </c>
       <c r="AV14" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW14" s="1">
         <v>0</v>
@@ -4673,7 +4764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:102" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:100" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -4717,13 +4808,13 @@
         <v>1</v>
       </c>
       <c r="O15" s="1">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="P15" s="1">
         <v>13</v>
       </c>
       <c r="Q15" s="1">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="R15" s="1">
         <v>1</v>
@@ -4768,7 +4859,7 @@
         <v>1</v>
       </c>
       <c r="AF15" s="1">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="AG15" s="1">
         <v>13</v>
@@ -4855,13 +4946,13 @@
         <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="BJ15" s="1">
         <v>13</v>
       </c>
       <c r="BK15" s="1">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="BL15" s="1">
         <v>1</v>
@@ -4974,353 +5065,353 @@
       <c r="CV15" s="1">
         <v>1</v>
       </c>
-      <c r="CW15" s="1"/>
-      <c r="CX15" s="1"/>
     </row>
-    <row r="16" spans="1:102" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:100" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="B16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="C16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="D16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="H16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="I16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="J16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="L16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="M16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="N16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="O16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="R16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="S16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="T16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="V16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="W16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="X16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="Y16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AA16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AB16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AC16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AD16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AF16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AG16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AH16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AI16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AK16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AL16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AM16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AN16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AP16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AQ16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AR16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AS16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AU16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AV16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AW16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AX16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AZ16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="BA16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="BB16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="BC16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="BE16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="BF16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="BG16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="BH16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="BJ16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="BK16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="BL16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="BM16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="BO16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="BP16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="BQ16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="BR16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="BT16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="BU16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="BV16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="BW16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="BY16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="BZ16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="CA16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="CB16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="CD16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="CE16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="CF16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="CG16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="CH16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="CI16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="CJ16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="CK16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="CL16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="CM16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="CN16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="CO16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="CP16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="CQ16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="CR16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="CS16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="CT16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="CU16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="CV16" s="1">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" s="1"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A16:CV16">
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:AX1 CV11:CV14 A2:A17 AX2:AX10 B16:CV16 B15:CX15">
-    <cfRule type="cellIs" dxfId="8" priority="13" operator="equal">
+  <conditionalFormatting sqref="A1:AX1 CV11:CV14 A2:A16 AX2:AX10 B15:CV16">
+    <cfRule type="cellIs" dxfId="9" priority="14" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="15" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="16" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY1:CV10 BL1:BL12 BM2:CV12 BI15 B2:CU14">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="between">
+      <formula>14</formula>
+      <formula>22</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="between">
-      <formula>14</formula>
-      <formula>21</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:CV16">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A16:CV16 A15:CX15 A1:CV14">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>4</formula>
+  <conditionalFormatting sqref="A1:CV16">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>13</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Project1/Project1/ギミック確認.xlsx
+++ b/Project1/Project1/ギミック確認.xlsx
@@ -86,7 +86,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="11">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -140,89 +140,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray125">
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -525,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CV16"/>
+  <dimension ref="A1:CV20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="CU19" sqref="CU19"/>
+    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4955,76 +4872,76 @@
         <v>13</v>
       </c>
       <c r="BL15" s="1">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="BM15" s="1">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="BN15" s="1">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="BO15" s="1">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="BP15" s="1">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="BQ15" s="1">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="BR15" s="1">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="BS15" s="1">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="BT15" s="1">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="BU15" s="1">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="BV15" s="1">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="BW15" s="1">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="BX15" s="1">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="BY15" s="1">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="CA15" s="1">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="CB15" s="1">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="CC15" s="1">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="CD15" s="1">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="CE15" s="1">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="CF15" s="1">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="CG15" s="1">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="CH15" s="1">
         <v>13</v>
       </c>
       <c r="CI15" s="1">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="CJ15" s="1">
         <v>1</v>
@@ -5068,109 +4985,109 @@
     </row>
     <row r="16" spans="1:100" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="P16" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Q16" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="R16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF16" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AG16" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AH16" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AI16" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AJ16" s="1">
         <v>0</v>
@@ -5179,13 +5096,13 @@
         <v>0</v>
       </c>
       <c r="AL16" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AM16" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AN16" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AO16" s="1">
         <v>0</v>
@@ -5194,7 +5111,7 @@
         <v>0</v>
       </c>
       <c r="AQ16" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AR16" s="1">
         <v>0</v>
@@ -5203,13 +5120,13 @@
         <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AU16" s="1">
         <v>0</v>
       </c>
       <c r="AV16" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AW16" s="1">
         <v>0</v>
@@ -5248,134 +5165,1342 @@
         <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="BJ16" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="BK16" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="BL16" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="BM16" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="BN16" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="BO16" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="BP16" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="BQ16" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="BR16" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="BS16" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="BT16" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="BU16" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="BV16" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="BW16" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="BX16" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="BY16" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="BZ16" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="CA16" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="CB16" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="CC16" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="CD16" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="CE16" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="CF16" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="CG16" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="CH16" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="CI16" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="CJ16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CM16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CQ16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CS16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CT16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CV16" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:100" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="1">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1</v>
+      </c>
+      <c r="K17" s="1">
+        <v>1</v>
+      </c>
+      <c r="L17" s="1">
+        <v>1</v>
+      </c>
+      <c r="M17" s="1">
+        <v>1</v>
+      </c>
+      <c r="N17" s="1">
+        <v>1</v>
+      </c>
+      <c r="O17" s="1">
+        <v>13</v>
+      </c>
+      <c r="P17" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>13</v>
+      </c>
+      <c r="R17" s="1">
+        <v>1</v>
+      </c>
+      <c r="S17" s="1">
+        <v>1</v>
+      </c>
+      <c r="T17" s="1">
+        <v>1</v>
+      </c>
+      <c r="U17" s="1">
+        <v>1</v>
+      </c>
+      <c r="V17" s="1">
+        <v>1</v>
+      </c>
+      <c r="W17" s="1">
+        <v>1</v>
+      </c>
+      <c r="X17" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB17" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC17" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD17" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE17" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF17" s="1">
+        <v>13</v>
+      </c>
+      <c r="AG17" s="1">
+        <v>13</v>
+      </c>
+      <c r="AH17" s="1">
+        <v>13</v>
+      </c>
+      <c r="AI17" s="1">
+        <v>13</v>
+      </c>
+      <c r="AJ17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL17" s="1">
+        <v>13</v>
+      </c>
+      <c r="AM17" s="1">
+        <v>13</v>
+      </c>
+      <c r="AN17" s="1">
+        <v>13</v>
+      </c>
+      <c r="AO17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ17" s="1">
+        <v>13</v>
+      </c>
+      <c r="AR17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT17" s="1">
+        <v>13</v>
+      </c>
+      <c r="AU17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV17" s="1">
+        <v>13</v>
+      </c>
+      <c r="AW17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI17" s="1">
+        <v>13</v>
+      </c>
+      <c r="BJ17" s="1">
+        <v>13</v>
+      </c>
+      <c r="BK17" s="1">
+        <v>13</v>
+      </c>
+      <c r="BL17" s="1">
+        <v>13</v>
+      </c>
+      <c r="BM17" s="1">
+        <v>13</v>
+      </c>
+      <c r="BN17" s="1">
+        <v>13</v>
+      </c>
+      <c r="BO17" s="1">
+        <v>13</v>
+      </c>
+      <c r="BP17" s="1">
+        <v>13</v>
+      </c>
+      <c r="BQ17" s="1">
+        <v>13</v>
+      </c>
+      <c r="BR17" s="1">
+        <v>13</v>
+      </c>
+      <c r="BS17" s="1">
+        <v>13</v>
+      </c>
+      <c r="BT17" s="1">
+        <v>13</v>
+      </c>
+      <c r="BU17" s="1">
+        <v>13</v>
+      </c>
+      <c r="BV17" s="1">
+        <v>13</v>
+      </c>
+      <c r="BW17" s="1">
+        <v>13</v>
+      </c>
+      <c r="BX17" s="1">
+        <v>13</v>
+      </c>
+      <c r="BY17" s="1">
+        <v>13</v>
+      </c>
+      <c r="BZ17" s="1">
+        <v>13</v>
+      </c>
+      <c r="CA17" s="1">
+        <v>13</v>
+      </c>
+      <c r="CB17" s="1">
+        <v>13</v>
+      </c>
+      <c r="CC17" s="1">
+        <v>13</v>
+      </c>
+      <c r="CD17" s="1">
+        <v>13</v>
+      </c>
+      <c r="CE17" s="1">
+        <v>13</v>
+      </c>
+      <c r="CF17" s="1">
+        <v>13</v>
+      </c>
+      <c r="CG17" s="1">
+        <v>13</v>
+      </c>
+      <c r="CH17" s="1">
+        <v>13</v>
+      </c>
+      <c r="CI17" s="1">
+        <v>13</v>
+      </c>
+      <c r="CJ17" s="1">
+        <v>1</v>
+      </c>
+      <c r="CK17" s="1">
+        <v>1</v>
+      </c>
+      <c r="CL17" s="1">
+        <v>1</v>
+      </c>
+      <c r="CM17" s="1">
+        <v>1</v>
+      </c>
+      <c r="CN17" s="1">
+        <v>1</v>
+      </c>
+      <c r="CO17" s="1">
+        <v>1</v>
+      </c>
+      <c r="CP17" s="1">
+        <v>1</v>
+      </c>
+      <c r="CQ17" s="1">
+        <v>1</v>
+      </c>
+      <c r="CR17" s="1">
+        <v>1</v>
+      </c>
+      <c r="CS17" s="1">
+        <v>1</v>
+      </c>
+      <c r="CT17" s="1">
+        <v>1</v>
+      </c>
+      <c r="CU17" s="1">
+        <v>1</v>
+      </c>
+      <c r="CV17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:100" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="1">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1</v>
+      </c>
+      <c r="K18" s="1">
+        <v>1</v>
+      </c>
+      <c r="L18" s="1">
+        <v>1</v>
+      </c>
+      <c r="M18" s="1">
+        <v>1</v>
+      </c>
+      <c r="N18" s="1">
+        <v>1</v>
+      </c>
+      <c r="O18" s="1">
+        <v>13</v>
+      </c>
+      <c r="P18" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>13</v>
+      </c>
+      <c r="R18" s="1">
+        <v>1</v>
+      </c>
+      <c r="S18" s="1">
+        <v>1</v>
+      </c>
+      <c r="T18" s="1">
+        <v>1</v>
+      </c>
+      <c r="U18" s="1">
+        <v>1</v>
+      </c>
+      <c r="V18" s="1">
+        <v>1</v>
+      </c>
+      <c r="W18" s="1">
+        <v>1</v>
+      </c>
+      <c r="X18" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF18" s="1">
+        <v>13</v>
+      </c>
+      <c r="AG18" s="1">
+        <v>13</v>
+      </c>
+      <c r="AH18" s="1">
+        <v>13</v>
+      </c>
+      <c r="AI18" s="1">
+        <v>13</v>
+      </c>
+      <c r="AJ18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="1">
+        <v>13</v>
+      </c>
+      <c r="AM18" s="1">
+        <v>13</v>
+      </c>
+      <c r="AN18" s="1">
+        <v>13</v>
+      </c>
+      <c r="AO18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="1">
+        <v>13</v>
+      </c>
+      <c r="AR18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT18" s="1">
+        <v>13</v>
+      </c>
+      <c r="AU18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV18" s="1">
+        <v>13</v>
+      </c>
+      <c r="AW18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI18" s="1">
+        <v>13</v>
+      </c>
+      <c r="BJ18" s="1">
+        <v>13</v>
+      </c>
+      <c r="BK18" s="1">
+        <v>13</v>
+      </c>
+      <c r="BL18" s="1">
+        <v>13</v>
+      </c>
+      <c r="BM18" s="1">
+        <v>13</v>
+      </c>
+      <c r="BN18" s="1">
+        <v>13</v>
+      </c>
+      <c r="BO18" s="1">
+        <v>13</v>
+      </c>
+      <c r="BP18" s="1">
+        <v>13</v>
+      </c>
+      <c r="BQ18" s="1">
+        <v>13</v>
+      </c>
+      <c r="BR18" s="1">
+        <v>13</v>
+      </c>
+      <c r="BS18" s="1">
+        <v>13</v>
+      </c>
+      <c r="BT18" s="1">
+        <v>13</v>
+      </c>
+      <c r="BU18" s="1">
+        <v>13</v>
+      </c>
+      <c r="BV18" s="1">
+        <v>13</v>
+      </c>
+      <c r="BW18" s="1">
+        <v>13</v>
+      </c>
+      <c r="BX18" s="1">
+        <v>13</v>
+      </c>
+      <c r="BY18" s="1">
+        <v>13</v>
+      </c>
+      <c r="BZ18" s="1">
+        <v>13</v>
+      </c>
+      <c r="CA18" s="1">
+        <v>13</v>
+      </c>
+      <c r="CB18" s="1">
+        <v>13</v>
+      </c>
+      <c r="CC18" s="1">
+        <v>13</v>
+      </c>
+      <c r="CD18" s="1">
+        <v>13</v>
+      </c>
+      <c r="CE18" s="1">
+        <v>13</v>
+      </c>
+      <c r="CF18" s="1">
+        <v>13</v>
+      </c>
+      <c r="CG18" s="1">
+        <v>13</v>
+      </c>
+      <c r="CH18" s="1">
+        <v>13</v>
+      </c>
+      <c r="CI18" s="1">
+        <v>13</v>
+      </c>
+      <c r="CJ18" s="1">
+        <v>1</v>
+      </c>
+      <c r="CK18" s="1">
+        <v>1</v>
+      </c>
+      <c r="CL18" s="1">
+        <v>1</v>
+      </c>
+      <c r="CM18" s="1">
+        <v>1</v>
+      </c>
+      <c r="CN18" s="1">
+        <v>1</v>
+      </c>
+      <c r="CO18" s="1">
+        <v>1</v>
+      </c>
+      <c r="CP18" s="1">
+        <v>1</v>
+      </c>
+      <c r="CQ18" s="1">
+        <v>1</v>
+      </c>
+      <c r="CR18" s="1">
+        <v>1</v>
+      </c>
+      <c r="CS18" s="1">
+        <v>1</v>
+      </c>
+      <c r="CT18" s="1">
+        <v>1</v>
+      </c>
+      <c r="CU18" s="1">
+        <v>1</v>
+      </c>
+      <c r="CV18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:100" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="1">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1</v>
+      </c>
+      <c r="K19" s="1">
+        <v>1</v>
+      </c>
+      <c r="L19" s="1">
+        <v>1</v>
+      </c>
+      <c r="M19" s="1">
+        <v>1</v>
+      </c>
+      <c r="N19" s="1">
+        <v>1</v>
+      </c>
+      <c r="O19" s="1">
+        <v>13</v>
+      </c>
+      <c r="P19" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>13</v>
+      </c>
+      <c r="R19" s="1">
+        <v>1</v>
+      </c>
+      <c r="S19" s="1">
+        <v>1</v>
+      </c>
+      <c r="T19" s="1">
+        <v>1</v>
+      </c>
+      <c r="U19" s="1">
+        <v>1</v>
+      </c>
+      <c r="V19" s="1">
+        <v>1</v>
+      </c>
+      <c r="W19" s="1">
+        <v>1</v>
+      </c>
+      <c r="X19" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF19" s="1">
+        <v>13</v>
+      </c>
+      <c r="AG19" s="1">
+        <v>13</v>
+      </c>
+      <c r="AH19" s="1">
+        <v>13</v>
+      </c>
+      <c r="AI19" s="1">
+        <v>13</v>
+      </c>
+      <c r="AJ19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL19" s="1">
+        <v>13</v>
+      </c>
+      <c r="AM19" s="1">
+        <v>13</v>
+      </c>
+      <c r="AN19" s="1">
+        <v>13</v>
+      </c>
+      <c r="AO19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ19" s="1">
+        <v>13</v>
+      </c>
+      <c r="AR19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT19" s="1">
+        <v>13</v>
+      </c>
+      <c r="AU19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV19" s="1">
+        <v>13</v>
+      </c>
+      <c r="AW19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ19" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA19" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB19" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC19" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD19" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE19" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF19" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG19" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH19" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI19" s="1">
+        <v>13</v>
+      </c>
+      <c r="BJ19" s="1">
+        <v>13</v>
+      </c>
+      <c r="BK19" s="1">
+        <v>13</v>
+      </c>
+      <c r="BL19" s="1">
+        <v>13</v>
+      </c>
+      <c r="BM19" s="1">
+        <v>13</v>
+      </c>
+      <c r="BN19" s="1">
+        <v>13</v>
+      </c>
+      <c r="BO19" s="1">
+        <v>13</v>
+      </c>
+      <c r="BP19" s="1">
+        <v>13</v>
+      </c>
+      <c r="BQ19" s="1">
+        <v>13</v>
+      </c>
+      <c r="BR19" s="1">
+        <v>13</v>
+      </c>
+      <c r="BS19" s="1">
+        <v>13</v>
+      </c>
+      <c r="BT19" s="1">
+        <v>13</v>
+      </c>
+      <c r="BU19" s="1">
+        <v>13</v>
+      </c>
+      <c r="BV19" s="1">
+        <v>13</v>
+      </c>
+      <c r="BW19" s="1">
+        <v>13</v>
+      </c>
+      <c r="BX19" s="1">
+        <v>13</v>
+      </c>
+      <c r="BY19" s="1">
+        <v>13</v>
+      </c>
+      <c r="BZ19" s="1">
+        <v>13</v>
+      </c>
+      <c r="CA19" s="1">
+        <v>13</v>
+      </c>
+      <c r="CB19" s="1">
+        <v>13</v>
+      </c>
+      <c r="CC19" s="1">
+        <v>13</v>
+      </c>
+      <c r="CD19" s="1">
+        <v>13</v>
+      </c>
+      <c r="CE19" s="1">
+        <v>13</v>
+      </c>
+      <c r="CF19" s="1">
+        <v>13</v>
+      </c>
+      <c r="CG19" s="1">
+        <v>13</v>
+      </c>
+      <c r="CH19" s="1">
+        <v>13</v>
+      </c>
+      <c r="CI19" s="1">
+        <v>13</v>
+      </c>
+      <c r="CJ19" s="1">
+        <v>1</v>
+      </c>
+      <c r="CK19" s="1">
+        <v>1</v>
+      </c>
+      <c r="CL19" s="1">
+        <v>1</v>
+      </c>
+      <c r="CM19" s="1">
+        <v>1</v>
+      </c>
+      <c r="CN19" s="1">
+        <v>1</v>
+      </c>
+      <c r="CO19" s="1">
+        <v>1</v>
+      </c>
+      <c r="CP19" s="1">
+        <v>1</v>
+      </c>
+      <c r="CQ19" s="1">
+        <v>1</v>
+      </c>
+      <c r="CR19" s="1">
+        <v>1</v>
+      </c>
+      <c r="CS19" s="1">
+        <v>1</v>
+      </c>
+      <c r="CT19" s="1">
+        <v>1</v>
+      </c>
+      <c r="CU19" s="1">
+        <v>1</v>
+      </c>
+      <c r="CV19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:100" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="1">
+        <v>1</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1</v>
+      </c>
+      <c r="K20" s="1">
+        <v>1</v>
+      </c>
+      <c r="L20" s="1">
+        <v>1</v>
+      </c>
+      <c r="M20" s="1">
+        <v>1</v>
+      </c>
+      <c r="N20" s="1">
+        <v>1</v>
+      </c>
+      <c r="O20" s="1">
+        <v>13</v>
+      </c>
+      <c r="P20" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>13</v>
+      </c>
+      <c r="R20" s="1">
+        <v>1</v>
+      </c>
+      <c r="S20" s="1">
+        <v>1</v>
+      </c>
+      <c r="T20" s="1">
+        <v>1</v>
+      </c>
+      <c r="U20" s="1">
+        <v>1</v>
+      </c>
+      <c r="V20" s="1">
+        <v>1</v>
+      </c>
+      <c r="W20" s="1">
+        <v>1</v>
+      </c>
+      <c r="X20" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z20" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB20" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC20" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD20" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE20" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF20" s="1">
+        <v>13</v>
+      </c>
+      <c r="AG20" s="1">
+        <v>13</v>
+      </c>
+      <c r="AH20" s="1">
+        <v>13</v>
+      </c>
+      <c r="AI20" s="1">
+        <v>13</v>
+      </c>
+      <c r="AJ20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL20" s="1">
+        <v>13</v>
+      </c>
+      <c r="AM20" s="1">
+        <v>13</v>
+      </c>
+      <c r="AN20" s="1">
+        <v>13</v>
+      </c>
+      <c r="AO20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ20" s="1">
+        <v>13</v>
+      </c>
+      <c r="AR20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT20" s="1">
+        <v>13</v>
+      </c>
+      <c r="AU20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV20" s="1">
+        <v>13</v>
+      </c>
+      <c r="AW20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ20" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA20" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB20" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC20" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD20" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE20" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF20" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG20" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH20" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI20" s="1">
+        <v>13</v>
+      </c>
+      <c r="BJ20" s="1">
+        <v>13</v>
+      </c>
+      <c r="BK20" s="1">
+        <v>13</v>
+      </c>
+      <c r="BL20" s="1">
+        <v>13</v>
+      </c>
+      <c r="BM20" s="1">
+        <v>13</v>
+      </c>
+      <c r="BN20" s="1">
+        <v>13</v>
+      </c>
+      <c r="BO20" s="1">
+        <v>13</v>
+      </c>
+      <c r="BP20" s="1">
+        <v>13</v>
+      </c>
+      <c r="BQ20" s="1">
+        <v>13</v>
+      </c>
+      <c r="BR20" s="1">
+        <v>13</v>
+      </c>
+      <c r="BS20" s="1">
+        <v>13</v>
+      </c>
+      <c r="BT20" s="1">
+        <v>13</v>
+      </c>
+      <c r="BU20" s="1">
+        <v>13</v>
+      </c>
+      <c r="BV20" s="1">
+        <v>13</v>
+      </c>
+      <c r="BW20" s="1">
+        <v>13</v>
+      </c>
+      <c r="BX20" s="1">
+        <v>13</v>
+      </c>
+      <c r="BY20" s="1">
+        <v>13</v>
+      </c>
+      <c r="BZ20" s="1">
+        <v>13</v>
+      </c>
+      <c r="CA20" s="1">
+        <v>13</v>
+      </c>
+      <c r="CB20" s="1">
+        <v>13</v>
+      </c>
+      <c r="CC20" s="1">
+        <v>13</v>
+      </c>
+      <c r="CD20" s="1">
+        <v>13</v>
+      </c>
+      <c r="CE20" s="1">
+        <v>13</v>
+      </c>
+      <c r="CF20" s="1">
+        <v>13</v>
+      </c>
+      <c r="CG20" s="1">
+        <v>13</v>
+      </c>
+      <c r="CH20" s="1">
+        <v>13</v>
+      </c>
+      <c r="CI20" s="1">
+        <v>13</v>
+      </c>
+      <c r="CJ20" s="1">
+        <v>1</v>
+      </c>
+      <c r="CK20" s="1">
+        <v>1</v>
+      </c>
+      <c r="CL20" s="1">
+        <v>1</v>
+      </c>
+      <c r="CM20" s="1">
+        <v>1</v>
+      </c>
+      <c r="CN20" s="1">
+        <v>1</v>
+      </c>
+      <c r="CO20" s="1">
+        <v>1</v>
+      </c>
+      <c r="CP20" s="1">
+        <v>1</v>
+      </c>
+      <c r="CQ20" s="1">
+        <v>1</v>
+      </c>
+      <c r="CR20" s="1">
+        <v>1</v>
+      </c>
+      <c r="CS20" s="1">
+        <v>1</v>
+      </c>
+      <c r="CT20" s="1">
+        <v>1</v>
+      </c>
+      <c r="CU20" s="1">
+        <v>1</v>
+      </c>
+      <c r="CV20" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A16:CV16">
+  <conditionalFormatting sqref="A16:CV20">
     <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:AX1 CV11:CV14 A2:A16 AX2:AX10 B15:CV16">
+  <conditionalFormatting sqref="A1:AX1 CV11:CV14 AX2:AX10 A2:A20 B15:CV20">
     <cfRule type="cellIs" dxfId="9" priority="14" operator="equal">
       <formula>3</formula>
     </cfRule>
@@ -5404,12 +6529,12 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:CV16">
+  <conditionalFormatting sqref="A1:CV20">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:CV16">
+  <conditionalFormatting sqref="A1:CV20">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>13</formula>
     </cfRule>

--- a/Project1/Project1/ギミック確認.xlsx
+++ b/Project1/Project1/ギミック確認.xlsx
@@ -12,10 +12,10 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="18555" windowHeight="9495"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ギミック確認" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="A1AZ10">Sheet1!$A$1:$AA$10</definedName>
+    <definedName name="A1AZ10">ギミック確認!$A$1:$AA$10</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -86,29 +86,19 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="9">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="9" tint="0.39991454817346722"/>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.499984740745262"/>
+          <fgColor theme="9" tint="0.39991454817346722"/>
+          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -123,6 +113,13 @@
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray125">
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -145,29 +142,18 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.499984740745262"/>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray125">
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+          <bgColor theme="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -445,7 +431,7 @@
   <dimension ref="A1:CV20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="AB30" sqref="AB30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2937,7 +2923,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="1">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="X9" s="1">
         <v>0</v>
@@ -6495,47 +6481,35 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A16:CV20">
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
-      <formula>99</formula>
+  <conditionalFormatting sqref="A1:CV20">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+      <formula>4</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:AX1 CV11:CV14 AX2:AX10 A2:A20 B15:CV20">
-    <cfRule type="cellIs" dxfId="9" priority="14" operator="equal">
-      <formula>3</formula>
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+      <formula>23</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="15" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="16" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AY1:CV10 BL1:BL12 BM2:CV12 BI15 B2:CU14">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="between">
       <formula>14</formula>
       <formula>22</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+      <formula>99</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="10" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:CV20">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:CV20">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>13</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Project1/Project1/ギミック確認.xlsx
+++ b/Project1/Project1/ギミック確認.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA2B\source\repos\Rain-cloud-friends\Project1\Project1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA2A\source\repos\Rain-cloud-friends\Project1\Project1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -90,15 +90,15 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="7" tint="-0.24994659260841701"/>
+          <fgColor theme="9" tint="0.39991454817346722"/>
+          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="9" tint="0.39991454817346722"/>
-          <bgColor theme="9" tint="0.39994506668294322"/>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -431,7 +431,7 @@
   <dimension ref="A1:CV20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="AB30" sqref="AB30"/>
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4412,7 +4412,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Q14" s="1">
         <v>0</v>
@@ -6504,12 +6504,12 @@
     <cfRule type="cellIs" dxfId="2" priority="10" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:CV20">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>13</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Project1/Project1/ギミック確認.xlsx
+++ b/Project1/Project1/ギミック確認.xlsx
@@ -430,8 +430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="AI15" sqref="AI15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="Q10" s="1">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="R10" s="1">
         <v>1</v>

--- a/Project1/Project1/ギミック確認.xlsx
+++ b/Project1/Project1/ギミック確認.xlsx
@@ -430,8 +430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="AI15" sqref="AI15"/>
+    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4684,16 +4684,16 @@
         <v>1</v>
       </c>
       <c r="F15" s="1">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="G15" s="1">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="H15" s="1">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="I15" s="1">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="J15" s="1">
         <v>1</v>

--- a/Project1/Project1/ギミック確認.xlsx
+++ b/Project1/Project1/ギミック確認.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA2A\source\repos\Rain-cloud-friends\Project1\Project1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA2B\source\repos\Rain-cloud-friends\Project1\Project1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -430,8 +430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="BG1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="CI25" sqref="CI25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1491,43 +1491,43 @@
         <v>0</v>
       </c>
       <c r="AW4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ4" s="1">
         <v>0</v>
@@ -2914,7 +2914,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="1">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="U9" s="1">
         <v>0</v>
@@ -4281,7 +4281,7 @@
         <v>0</v>
       </c>
       <c r="BU13" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BV13" s="1">
         <v>0</v>
@@ -4341,19 +4341,19 @@
         <v>0</v>
       </c>
       <c r="CO13" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CP13" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CQ13" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CR13" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CS13" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CT13" s="1">
         <v>0</v>
@@ -4457,19 +4457,19 @@
         <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AF14" s="1">
         <v>0</v>
       </c>
       <c r="AG14" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AH14" s="1">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AI14" s="1">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
         <v>0</v>
@@ -4478,13 +4478,13 @@
         <v>0</v>
       </c>
       <c r="AL14" s="1">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AM14" s="1">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AN14" s="1">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
         <v>0</v>
@@ -4493,7 +4493,7 @@
         <v>0</v>
       </c>
       <c r="AQ14" s="1">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AR14" s="1">
         <v>0</v>
@@ -4502,13 +4502,13 @@
         <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AU14" s="1">
         <v>0</v>
       </c>
       <c r="AV14" s="1">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AW14" s="1">
         <v>0</v>
@@ -4547,10 +4547,10 @@
         <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ14" s="1">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="BK14" s="1">
         <v>0</v>
@@ -4571,7 +4571,7 @@
         <v>0</v>
       </c>
       <c r="BQ14" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BR14" s="1">
         <v>14</v>
@@ -4595,7 +4595,7 @@
         <v>5</v>
       </c>
       <c r="BY14" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BZ14" s="1">
         <v>0</v>
@@ -4619,7 +4619,7 @@
         <v>0</v>
       </c>
       <c r="CG14" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CH14" s="1">
         <v>14</v>
@@ -4643,19 +4643,19 @@
         <v>0</v>
       </c>
       <c r="CO14" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CP14" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CQ14" s="1">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="CR14" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CS14" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CT14" s="1">
         <v>0</v>
@@ -4762,16 +4762,16 @@
         <v>1</v>
       </c>
       <c r="AF15" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AG15" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AH15" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AI15" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
         <v>0</v>
@@ -4780,13 +4780,13 @@
         <v>0</v>
       </c>
       <c r="AL15" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AM15" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AN15" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
         <v>0</v>
@@ -4795,7 +4795,7 @@
         <v>0</v>
       </c>
       <c r="AQ15" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AR15" s="1">
         <v>0</v>
@@ -4804,13 +4804,13 @@
         <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AU15" s="1">
         <v>0</v>
       </c>
       <c r="AV15" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AW15" s="1">
         <v>0</v>
@@ -4849,7 +4849,7 @@
         <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="BJ15" s="1">
         <v>13</v>
@@ -5064,16 +5064,16 @@
         <v>1</v>
       </c>
       <c r="AF16" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AG16" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AH16" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AI16" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
         <v>0</v>
@@ -5082,13 +5082,13 @@
         <v>0</v>
       </c>
       <c r="AL16" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AM16" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AN16" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
         <v>0</v>
@@ -5097,7 +5097,7 @@
         <v>0</v>
       </c>
       <c r="AQ16" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AR16" s="1">
         <v>0</v>
@@ -5106,13 +5106,13 @@
         <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AU16" s="1">
         <v>0</v>
       </c>
       <c r="AV16" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AW16" s="1">
         <v>0</v>
@@ -5151,7 +5151,7 @@
         <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="BJ16" s="1">
         <v>13</v>
@@ -5366,16 +5366,16 @@
         <v>1</v>
       </c>
       <c r="AF17" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AG17" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AH17" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AI17" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
         <v>0</v>
@@ -5384,13 +5384,13 @@
         <v>0</v>
       </c>
       <c r="AL17" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AM17" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AN17" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
         <v>0</v>
@@ -5399,7 +5399,7 @@
         <v>0</v>
       </c>
       <c r="AQ17" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AR17" s="1">
         <v>0</v>
@@ -5408,13 +5408,13 @@
         <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AU17" s="1">
         <v>0</v>
       </c>
       <c r="AV17" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AW17" s="1">
         <v>0</v>
@@ -5453,7 +5453,7 @@
         <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="BJ17" s="1">
         <v>13</v>
@@ -5668,16 +5668,16 @@
         <v>1</v>
       </c>
       <c r="AF18" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AG18" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AH18" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AI18" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
         <v>0</v>
@@ -5686,13 +5686,13 @@
         <v>0</v>
       </c>
       <c r="AL18" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AM18" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AN18" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
         <v>0</v>
@@ -5701,7 +5701,7 @@
         <v>0</v>
       </c>
       <c r="AQ18" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AR18" s="1">
         <v>0</v>
@@ -5710,13 +5710,13 @@
         <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AU18" s="1">
         <v>0</v>
       </c>
       <c r="AV18" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AW18" s="1">
         <v>0</v>
@@ -5755,7 +5755,7 @@
         <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="BJ18" s="1">
         <v>13</v>
@@ -5970,16 +5970,16 @@
         <v>1</v>
       </c>
       <c r="AF19" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AG19" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AH19" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AI19" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
         <v>0</v>
@@ -5988,13 +5988,13 @@
         <v>0</v>
       </c>
       <c r="AL19" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AM19" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AN19" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
         <v>0</v>
@@ -6003,7 +6003,7 @@
         <v>0</v>
       </c>
       <c r="AQ19" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AR19" s="1">
         <v>0</v>
@@ -6012,13 +6012,13 @@
         <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AU19" s="1">
         <v>0</v>
       </c>
       <c r="AV19" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AW19" s="1">
         <v>0</v>
@@ -6057,7 +6057,7 @@
         <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="BJ19" s="1">
         <v>13</v>
@@ -6272,16 +6272,16 @@
         <v>1</v>
       </c>
       <c r="AF20" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AG20" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AH20" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AI20" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
         <v>0</v>
@@ -6290,13 +6290,13 @@
         <v>0</v>
       </c>
       <c r="AL20" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AM20" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AN20" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
         <v>0</v>
@@ -6305,7 +6305,7 @@
         <v>0</v>
       </c>
       <c r="AQ20" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AR20" s="1">
         <v>0</v>
@@ -6314,13 +6314,13 @@
         <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AU20" s="1">
         <v>0</v>
       </c>
       <c r="AV20" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AW20" s="1">
         <v>0</v>
@@ -6359,7 +6359,7 @@
         <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="BJ20" s="1">
         <v>13</v>

--- a/Project1/Project1/ギミック確認.xlsx
+++ b/Project1/Project1/ギミック確認.xlsx
@@ -86,7 +86,90 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="19">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFFF0000"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.39991454817346722"/>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray125">
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -430,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BG1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="CI25" sqref="CI25"/>
+    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="AF10" sqref="AF10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -905,7 +988,7 @@
         <v>0</v>
       </c>
       <c r="BC2" s="1">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="BD2" s="1">
         <v>0</v>
@@ -1374,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="K4" s="1">
         <v>0</v>
@@ -1383,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="1">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="N4" s="1">
         <v>0</v>
@@ -1392,7 +1475,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="Q4" s="1">
         <v>0</v>
@@ -1401,7 +1484,7 @@
         <v>0</v>
       </c>
       <c r="S4" s="1">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="T4" s="1">
         <v>0</v>
@@ -1410,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="V4" s="1">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="W4" s="1">
         <v>0</v>
@@ -1676,43 +1759,43 @@
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W5" s="1">
         <v>0</v>
@@ -2908,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="R9" s="1">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="S9" s="1">
         <v>0</v>
@@ -2920,19 +3003,19 @@
         <v>0</v>
       </c>
       <c r="V9" s="1">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="W9" s="1">
         <v>23</v>
       </c>
       <c r="X9" s="1">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="Y9" s="1">
         <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="AA9" s="1">
         <v>0</v>
@@ -3228,19 +3311,19 @@
         <v>1</v>
       </c>
       <c r="X10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC10" s="1">
         <v>0</v>
@@ -4370,7 +4453,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="1">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -4430,7 +4513,7 @@
         <v>0</v>
       </c>
       <c r="V14" s="1">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="W14" s="1">
         <v>0</v>
@@ -4442,10 +4525,10 @@
         <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="AA14" s="1">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="AB14" s="1">
         <v>0</v>
@@ -4649,7 +4732,7 @@
         <v>0</v>
       </c>
       <c r="CQ14" s="1">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="CR14" s="1">
         <v>0</v>
@@ -6000,7 +6083,7 @@
         <v>0</v>
       </c>
       <c r="AP19" s="1">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="AQ19" s="1">
         <v>0</v>
@@ -6009,7 +6092,7 @@
         <v>0</v>
       </c>
       <c r="AS19" s="1">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="AT19" s="1">
         <v>0</v>
@@ -6302,19 +6385,19 @@
         <v>0</v>
       </c>
       <c r="AP20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU20" s="1">
         <v>0</v>
@@ -6482,35 +6565,41 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:CV20">
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
       <formula>23</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="16" priority="5" operator="between">
       <formula>14</formula>
       <formula>22</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
       <formula>99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="10" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="11" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:CV20">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
       <formula>13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
+      <formula>50</formula>
+      <formula>59</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Project1/Project1/ギミック確認.xlsx
+++ b/Project1/Project1/ギミック確認.xlsx
@@ -86,7 +86,101 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="21">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFFF0000"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FF0070C0"/>
+          <bgColor rgb="FF99CC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.39991454817346722"/>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray125">
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -170,78 +264,14 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="9" tint="0.39991454817346722"/>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray125">
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF99CC00"/>
+      <color rgb="FFFFCC00"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -514,7 +544,7 @@
   <dimension ref="A1:CV20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="AF10" sqref="AF10"/>
+      <selection activeCell="AK11" sqref="AK11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -841,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
@@ -874,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="Q2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2" s="1">
         <v>0</v>
@@ -892,7 +922,7 @@
         <v>0</v>
       </c>
       <c r="W2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X2" s="1">
         <v>0</v>
@@ -913,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="AD2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE2" s="1">
         <v>0</v>
@@ -931,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK2" s="1">
         <v>0</v>
@@ -958,7 +988,7 @@
         <v>0</v>
       </c>
       <c r="AS2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT2" s="1">
         <v>0</v>
@@ -988,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="BC2" s="1">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
         <v>0</v>
@@ -1143,7 +1173,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -1176,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="Q3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" s="1">
         <v>0</v>
@@ -1194,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="W3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X3" s="1">
         <v>0</v>
@@ -1215,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="AD3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE3" s="1">
         <v>0</v>
@@ -1233,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK3" s="1">
         <v>0</v>
@@ -1260,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="AS3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT3" s="1">
         <v>0</v>
@@ -1445,7 +1475,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -1478,7 +1508,7 @@
         <v>55</v>
       </c>
       <c r="Q4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" s="1">
         <v>0</v>
@@ -1493,10 +1523,10 @@
         <v>0</v>
       </c>
       <c r="V4" s="1">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="W4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X4" s="1">
         <v>0</v>
@@ -1517,10 +1547,10 @@
         <v>0</v>
       </c>
       <c r="AD4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE4" s="1">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="AF4" s="1">
         <v>0</v>
@@ -1532,10 +1562,10 @@
         <v>0</v>
       </c>
       <c r="AI4" s="1">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AJ4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK4" s="1">
         <v>0</v>
@@ -1562,7 +1592,7 @@
         <v>0</v>
       </c>
       <c r="AS4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT4" s="1">
         <v>0</v>
@@ -1747,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -1798,7 +1828,7 @@
         <v>1</v>
       </c>
       <c r="W5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X5" s="1">
         <v>0</v>
@@ -1819,25 +1849,25 @@
         <v>0</v>
       </c>
       <c r="AD5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK5" s="1">
         <v>0</v>
@@ -1864,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="AS5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT5" s="1">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="AU5" s="1">
         <v>0</v>
@@ -2049,7 +2079,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -2073,7 +2103,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" s="1">
         <v>0</v>
@@ -2100,7 +2130,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X6" s="1">
         <v>0</v>
@@ -2166,37 +2196,37 @@
         <v>0</v>
       </c>
       <c r="AS6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD6" s="1">
         <v>0</v>
@@ -2351,7 +2381,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
@@ -2375,10 +2405,10 @@
         <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" s="1">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="P7" s="1">
         <v>0</v>
@@ -2402,7 +2432,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7" s="1">
         <v>0</v>
@@ -2498,7 +2528,7 @@
         <v>0</v>
       </c>
       <c r="BC7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD7" s="1">
         <v>0</v>
@@ -2653,7 +2683,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
@@ -2677,10 +2707,10 @@
         <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" s="1">
         <v>0</v>
@@ -2704,7 +2734,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8" s="1">
         <v>0</v>
@@ -2800,7 +2830,7 @@
         <v>0</v>
       </c>
       <c r="BC8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD8" s="1">
         <v>0</v>
@@ -2955,10 +2985,10 @@
         <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="1">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="H9" s="1">
         <v>0</v>
@@ -2967,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="K9" s="1">
         <v>0</v>
@@ -2982,10 +3012,10 @@
         <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="1">
         <v>0</v>
@@ -3006,7 +3036,7 @@
         <v>53</v>
       </c>
       <c r="W9" s="1">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="X9" s="1">
         <v>54</v>
@@ -3021,7 +3051,7 @@
         <v>0</v>
       </c>
       <c r="AB9" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AC9" s="1">
         <v>0</v>
@@ -3102,7 +3132,7 @@
         <v>0</v>
       </c>
       <c r="BC9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD9" s="1">
         <v>0</v>
@@ -3257,19 +3287,19 @@
         <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="1">
         <v>0</v>
@@ -3287,10 +3317,10 @@
         <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="1">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="R10" s="1">
         <v>1</v>
@@ -3404,7 +3434,7 @@
         <v>0</v>
       </c>
       <c r="BC10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD10" s="1">
         <v>0</v>
@@ -3610,7 +3640,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X11" s="1">
         <v>0</v>
@@ -3706,7 +3736,7 @@
         <v>0</v>
       </c>
       <c r="BC11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD11" s="1">
         <v>0</v>
@@ -3912,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X12" s="1">
         <v>0</v>
@@ -4008,7 +4038,7 @@
         <v>0</v>
       </c>
       <c r="BC12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD12" s="1">
         <v>0</v>
@@ -4119,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="CN12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO12" s="1">
         <v>0</v>
@@ -4214,7 +4244,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X13" s="1">
         <v>0</v>
@@ -4310,7 +4340,7 @@
         <v>0</v>
       </c>
       <c r="BC13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD13" s="1">
         <v>0</v>
@@ -4421,7 +4451,7 @@
         <v>0</v>
       </c>
       <c r="CN13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO13" s="1">
         <v>0</v>
@@ -4462,7 +4492,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -4486,7 +4516,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="1">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="N14" s="1">
         <v>0</v>
@@ -4495,7 +4525,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="1">
         <v>0</v>
@@ -4507,7 +4537,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="1">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="U14" s="1">
         <v>0</v>
@@ -4516,16 +4546,16 @@
         <v>52</v>
       </c>
       <c r="W14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X14" s="1">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="Y14" s="1">
         <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="AA14" s="1">
         <v>58</v>
@@ -4612,10 +4642,10 @@
         <v>0</v>
       </c>
       <c r="BC14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD14" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="BE14" s="1">
         <v>0</v>
@@ -4720,10 +4750,10 @@
         <v>0</v>
       </c>
       <c r="CM14" s="1">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="CN14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO14" s="1">
         <v>0</v>
@@ -4794,13 +4824,13 @@
         <v>1</v>
       </c>
       <c r="O15" s="1">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="P15" s="1">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="1">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="R15" s="1">
         <v>1</v>
@@ -4914,25 +4944,25 @@
         <v>0</v>
       </c>
       <c r="BC15" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="BD15" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="BE15" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="BF15" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="BG15" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="BH15" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="BI15" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="BJ15" s="1">
         <v>13</v>
@@ -5096,13 +5126,13 @@
         <v>1</v>
       </c>
       <c r="O16" s="1">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="P16" s="1">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="1">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="R16" s="1">
         <v>1</v>
@@ -5398,13 +5428,13 @@
         <v>1</v>
       </c>
       <c r="O17" s="1">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="P17" s="1">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="1">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="R17" s="1">
         <v>1</v>
@@ -5700,13 +5730,13 @@
         <v>1</v>
       </c>
       <c r="O18" s="1">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="P18" s="1">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="1">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="R18" s="1">
         <v>1</v>
@@ -6002,13 +6032,13 @@
         <v>1</v>
       </c>
       <c r="O19" s="1">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="P19" s="1">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="1">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="R19" s="1">
         <v>1</v>
@@ -6304,13 +6334,13 @@
         <v>1</v>
       </c>
       <c r="O20" s="1">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="P20" s="1">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="1">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="R20" s="1">
         <v>1</v>
@@ -6565,39 +6595,43 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:CV20">
-    <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
+      <formula>23</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
-      <formula>23</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="between">
       <formula>14</formula>
       <formula>22</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="11" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="12" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:CV20">
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="between">
+      <formula>60</formula>
+      <formula>69</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="between">
       <formula>50</formula>
       <formula>59</formula>
     </cfRule>

--- a/Project1/Project1/ギミック確認.xlsx
+++ b/Project1/Project1/ギミック確認.xlsx
@@ -86,7 +86,77 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="32">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.39991454817346722"/>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray125">
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -183,6 +253,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF0000FF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i/>
         <color rgb="FFFF0000"/>
@@ -191,6 +271,17 @@
         <patternFill>
           <fgColor rgb="FFFF0000"/>
           <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FF0070C0"/>
+          <bgColor rgb="FF99CC00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -248,13 +339,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -264,10 +348,18 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FF99CC00"/>
       <color rgb="FFFFCC00"/>
     </mruColors>
@@ -541,15 +633,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CV20"/>
+  <dimension ref="A1:CV40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="AK11" sqref="AK11"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="100" width="3.625" customWidth="1"/>
+    <col min="1" max="2" width="3.625" customWidth="1"/>
+    <col min="3" max="3" width="4.75" customWidth="1"/>
+    <col min="4" max="100" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:100" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1048,106 +1142,106 @@
         <v>1</v>
       </c>
       <c r="BM2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CM2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CP2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CR2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CS2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CT2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU2" s="1">
         <v>1</v>
@@ -1350,106 +1444,106 @@
         <v>1</v>
       </c>
       <c r="BM3" s="1">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="BN3" s="1">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="BO3" s="1">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="BP3" s="1">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="BQ3" s="1">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="BR3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CM3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CP3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CR3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CS3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CT3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU3" s="1">
         <v>1</v>
@@ -1652,106 +1746,106 @@
         <v>1</v>
       </c>
       <c r="BM4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW4" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="BX4" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BY4" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB4" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="CC4" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="CD4" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="CE4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CM4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN4" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="CO4" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="CP4" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="CQ4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CR4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CS4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CT4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU4" s="1">
         <v>1</v>
@@ -1954,106 +2048,106 @@
         <v>1</v>
       </c>
       <c r="BM5" s="1">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="BN5" s="1">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="BO5" s="1">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="BP5" s="1">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="BQ5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW5" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="BX5" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BY5" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB5" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="CC5" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="CD5" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="CE5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CM5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN5" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="CO5" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="CP5" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="CQ5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CR5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CS5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CT5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU5" s="1">
         <v>1</v>
@@ -2256,106 +2350,106 @@
         <v>1</v>
       </c>
       <c r="BM6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW6" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="BX6" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BY6" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="CA6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB6" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="CC6" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="CD6" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="CE6" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="CF6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CM6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN6" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="CO6" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="CP6" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="CQ6" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="CR6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CS6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CT6" s="1">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="CU6" s="1">
         <v>1</v>
@@ -2630,13 +2724,13 @@
         <v>1</v>
       </c>
       <c r="CK7" s="1">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="CL7" s="1">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="CM7" s="1">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="CN7" s="1">
         <v>1</v>
@@ -2932,13 +3026,13 @@
         <v>1</v>
       </c>
       <c r="CK8" s="1">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="CL8" s="1">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="CM8" s="1">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="CN8" s="1">
         <v>1</v>
@@ -3234,13 +3328,13 @@
         <v>1</v>
       </c>
       <c r="CK9" s="1">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="CL9" s="1">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="CM9" s="1">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="CN9" s="1">
         <v>1</v>
@@ -3536,13 +3630,13 @@
         <v>1</v>
       </c>
       <c r="CK10" s="1">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="CL10" s="1">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="CM10" s="1">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="CN10" s="1">
         <v>1</v>
@@ -3760,115 +3854,115 @@
         <v>0</v>
       </c>
       <c r="BK11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ11" s="1">
         <v>1</v>
       </c>
       <c r="CK11" s="1">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="CL11" s="1">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="CM11" s="1">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="CN11" s="1">
         <v>1</v>
       </c>
       <c r="CO11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CP11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CR11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CS11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CT11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV11" s="1">
         <v>1</v>
@@ -4137,16 +4231,16 @@
         <v>0</v>
       </c>
       <c r="CJ12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK12" s="1">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="CL12" s="1">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="CM12" s="1">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="CN12" s="1">
         <v>1</v>
@@ -4439,16 +4533,16 @@
         <v>0</v>
       </c>
       <c r="CJ13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK13" s="1">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="CL13" s="1">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="CM13" s="1">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="CN13" s="1">
         <v>1</v>
@@ -4486,7 +4580,7 @@
         <v>53</v>
       </c>
       <c r="C14" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
@@ -4735,22 +4829,22 @@
         <v>0</v>
       </c>
       <c r="CH14" s="1">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="CI14" s="1">
         <v>0</v>
       </c>
       <c r="CJ14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK14" s="1">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="CL14" s="1">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="CM14" s="1">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="CN14" s="1">
         <v>1</v>
@@ -5046,13 +5140,13 @@
         <v>1</v>
       </c>
       <c r="CK15" s="1">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="CL15" s="1">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="CM15" s="1">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="CN15" s="1">
         <v>1</v>
@@ -5348,13 +5442,13 @@
         <v>1</v>
       </c>
       <c r="CK16" s="1">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="CL16" s="1">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="CM16" s="1">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="CN16" s="1">
         <v>1</v>
@@ -5650,13 +5744,13 @@
         <v>1</v>
       </c>
       <c r="CK17" s="1">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="CL17" s="1">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="CM17" s="1">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="CN17" s="1">
         <v>1</v>
@@ -5952,13 +6046,13 @@
         <v>1</v>
       </c>
       <c r="CK18" s="1">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="CL18" s="1">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="CM18" s="1">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="CN18" s="1">
         <v>1</v>
@@ -6254,13 +6348,13 @@
         <v>1</v>
       </c>
       <c r="CK19" s="1">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="CL19" s="1">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="CM19" s="1">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="CN19" s="1">
         <v>1</v>
@@ -6290,7 +6384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:100" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>1</v>
       </c>
@@ -6556,13 +6650,13 @@
         <v>1</v>
       </c>
       <c r="CK20" s="1">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="CL20" s="1">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="CM20" s="1">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="CN20" s="1">
         <v>1</v>
@@ -6590,50 +6684,6128 @@
       </c>
       <c r="CV20" s="1">
         <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:100" x14ac:dyDescent="0.15">
+      <c r="A21" s="1">
+        <v>0</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0</v>
+      </c>
+      <c r="O21" s="1">
+        <v>0</v>
+      </c>
+      <c r="P21" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>0</v>
+      </c>
+      <c r="R21" s="1">
+        <v>0</v>
+      </c>
+      <c r="S21" s="1">
+        <v>0</v>
+      </c>
+      <c r="T21" s="1">
+        <v>0</v>
+      </c>
+      <c r="U21" s="1">
+        <v>0</v>
+      </c>
+      <c r="V21" s="1">
+        <v>0</v>
+      </c>
+      <c r="W21" s="1">
+        <v>0</v>
+      </c>
+      <c r="X21" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ21" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA21" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB21" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC21" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD21" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE21" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF21" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG21" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH21" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI21" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ21" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK21" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL21" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM21" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN21" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO21" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP21" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ21" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR21" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS21" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT21" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU21" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV21" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW21" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX21" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY21" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ21" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA21" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB21" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC21" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD21" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE21" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF21" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG21" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH21" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI21" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ21" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK21" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL21" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM21" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN21" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO21" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP21" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ21" s="1">
+        <v>0</v>
+      </c>
+      <c r="CR21" s="1">
+        <v>0</v>
+      </c>
+      <c r="CS21" s="1">
+        <v>0</v>
+      </c>
+      <c r="CT21" s="1">
+        <v>0</v>
+      </c>
+      <c r="CU21" s="1">
+        <v>0</v>
+      </c>
+      <c r="CV21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:100" x14ac:dyDescent="0.15">
+      <c r="A22" s="1">
+        <v>0</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0</v>
+      </c>
+      <c r="N22" s="1">
+        <v>0</v>
+      </c>
+      <c r="O22" s="1">
+        <v>0</v>
+      </c>
+      <c r="P22" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>0</v>
+      </c>
+      <c r="R22" s="1">
+        <v>0</v>
+      </c>
+      <c r="S22" s="1">
+        <v>0</v>
+      </c>
+      <c r="T22" s="1">
+        <v>0</v>
+      </c>
+      <c r="U22" s="1">
+        <v>0</v>
+      </c>
+      <c r="V22" s="1">
+        <v>0</v>
+      </c>
+      <c r="W22" s="1">
+        <v>0</v>
+      </c>
+      <c r="X22" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ22" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA22" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB22" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC22" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD22" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE22" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF22" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG22" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH22" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI22" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ22" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK22" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL22" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM22" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN22" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO22" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP22" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ22" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR22" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS22" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT22" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU22" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV22" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW22" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX22" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY22" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ22" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA22" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB22" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC22" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD22" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE22" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF22" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG22" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH22" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI22" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ22" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK22" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL22" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM22" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN22" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO22" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP22" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ22" s="1">
+        <v>0</v>
+      </c>
+      <c r="CR22" s="1">
+        <v>0</v>
+      </c>
+      <c r="CS22" s="1">
+        <v>0</v>
+      </c>
+      <c r="CT22" s="1">
+        <v>0</v>
+      </c>
+      <c r="CU22" s="1">
+        <v>0</v>
+      </c>
+      <c r="CV22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:100" x14ac:dyDescent="0.15">
+      <c r="A23" s="1">
+        <v>0</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0</v>
+      </c>
+      <c r="N23" s="1">
+        <v>0</v>
+      </c>
+      <c r="O23" s="1">
+        <v>0</v>
+      </c>
+      <c r="P23" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>0</v>
+      </c>
+      <c r="R23" s="1">
+        <v>0</v>
+      </c>
+      <c r="S23" s="1">
+        <v>0</v>
+      </c>
+      <c r="T23" s="1">
+        <v>0</v>
+      </c>
+      <c r="U23" s="1">
+        <v>0</v>
+      </c>
+      <c r="V23" s="1">
+        <v>0</v>
+      </c>
+      <c r="W23" s="1">
+        <v>0</v>
+      </c>
+      <c r="X23" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ23" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA23" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB23" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC23" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD23" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE23" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF23" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG23" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH23" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI23" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ23" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK23" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL23" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM23" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN23" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO23" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP23" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ23" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR23" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS23" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT23" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU23" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV23" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW23" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX23" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY23" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ23" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA23" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB23" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC23" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD23" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE23" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF23" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG23" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH23" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI23" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ23" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK23" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL23" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM23" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN23" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO23" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP23" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ23" s="1">
+        <v>0</v>
+      </c>
+      <c r="CR23" s="1">
+        <v>0</v>
+      </c>
+      <c r="CS23" s="1">
+        <v>0</v>
+      </c>
+      <c r="CT23" s="1">
+        <v>0</v>
+      </c>
+      <c r="CU23" s="1">
+        <v>0</v>
+      </c>
+      <c r="CV23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:100" x14ac:dyDescent="0.15">
+      <c r="A24" s="1">
+        <v>0</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1">
+        <v>0</v>
+      </c>
+      <c r="N24" s="1">
+        <v>0</v>
+      </c>
+      <c r="O24" s="1">
+        <v>0</v>
+      </c>
+      <c r="P24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>0</v>
+      </c>
+      <c r="R24" s="1">
+        <v>0</v>
+      </c>
+      <c r="S24" s="1">
+        <v>0</v>
+      </c>
+      <c r="T24" s="1">
+        <v>0</v>
+      </c>
+      <c r="U24" s="1">
+        <v>0</v>
+      </c>
+      <c r="V24" s="1">
+        <v>0</v>
+      </c>
+      <c r="W24" s="1">
+        <v>0</v>
+      </c>
+      <c r="X24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ24" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA24" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB24" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC24" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD24" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE24" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF24" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG24" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH24" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI24" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ24" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK24" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL24" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM24" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN24" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO24" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP24" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ24" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR24" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS24" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT24" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU24" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV24" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW24" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX24" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY24" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ24" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA24" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB24" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC24" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD24" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE24" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF24" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG24" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH24" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI24" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ24" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK24" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL24" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM24" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN24" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO24" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP24" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ24" s="1">
+        <v>0</v>
+      </c>
+      <c r="CR24" s="1">
+        <v>0</v>
+      </c>
+      <c r="CS24" s="1">
+        <v>0</v>
+      </c>
+      <c r="CT24" s="1">
+        <v>0</v>
+      </c>
+      <c r="CU24" s="1">
+        <v>0</v>
+      </c>
+      <c r="CV24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:100" x14ac:dyDescent="0.15">
+      <c r="A25" s="1">
+        <v>0</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0</v>
+      </c>
+      <c r="N25" s="1">
+        <v>0</v>
+      </c>
+      <c r="O25" s="1">
+        <v>0</v>
+      </c>
+      <c r="P25" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>0</v>
+      </c>
+      <c r="R25" s="1">
+        <v>0</v>
+      </c>
+      <c r="S25" s="1">
+        <v>0</v>
+      </c>
+      <c r="T25" s="1">
+        <v>0</v>
+      </c>
+      <c r="U25" s="1">
+        <v>0</v>
+      </c>
+      <c r="V25" s="1">
+        <v>0</v>
+      </c>
+      <c r="W25" s="1">
+        <v>0</v>
+      </c>
+      <c r="X25" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ25" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA25" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB25" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC25" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD25" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE25" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF25" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG25" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH25" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI25" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ25" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK25" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL25" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM25" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN25" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO25" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP25" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ25" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR25" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS25" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT25" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU25" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV25" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW25" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX25" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY25" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ25" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA25" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB25" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC25" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD25" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE25" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF25" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG25" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH25" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI25" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ25" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK25" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL25" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM25" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN25" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO25" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP25" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ25" s="1">
+        <v>0</v>
+      </c>
+      <c r="CR25" s="1">
+        <v>0</v>
+      </c>
+      <c r="CS25" s="1">
+        <v>0</v>
+      </c>
+      <c r="CT25" s="1">
+        <v>0</v>
+      </c>
+      <c r="CU25" s="1">
+        <v>0</v>
+      </c>
+      <c r="CV25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:100" x14ac:dyDescent="0.15">
+      <c r="A26" s="1">
+        <v>0</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0</v>
+      </c>
+      <c r="L26" s="1">
+        <v>0</v>
+      </c>
+      <c r="M26" s="1">
+        <v>0</v>
+      </c>
+      <c r="N26" s="1">
+        <v>0</v>
+      </c>
+      <c r="O26" s="1">
+        <v>0</v>
+      </c>
+      <c r="P26" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>0</v>
+      </c>
+      <c r="R26" s="1">
+        <v>0</v>
+      </c>
+      <c r="S26" s="1">
+        <v>0</v>
+      </c>
+      <c r="T26" s="1">
+        <v>0</v>
+      </c>
+      <c r="U26" s="1">
+        <v>0</v>
+      </c>
+      <c r="V26" s="1">
+        <v>0</v>
+      </c>
+      <c r="W26" s="1">
+        <v>0</v>
+      </c>
+      <c r="X26" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ26" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA26" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB26" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC26" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD26" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE26" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF26" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG26" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH26" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI26" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ26" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK26" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL26" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM26" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN26" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO26" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP26" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ26" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR26" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS26" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT26" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU26" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV26" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW26" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX26" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY26" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ26" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA26" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB26" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC26" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD26" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE26" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF26" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG26" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH26" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI26" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ26" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK26" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL26" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM26" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN26" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO26" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP26" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ26" s="1">
+        <v>0</v>
+      </c>
+      <c r="CR26" s="1">
+        <v>0</v>
+      </c>
+      <c r="CS26" s="1">
+        <v>0</v>
+      </c>
+      <c r="CT26" s="1">
+        <v>0</v>
+      </c>
+      <c r="CU26" s="1">
+        <v>0</v>
+      </c>
+      <c r="CV26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:100" x14ac:dyDescent="0.15">
+      <c r="A27" s="1">
+        <v>0</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0</v>
+      </c>
+      <c r="L27" s="1">
+        <v>0</v>
+      </c>
+      <c r="M27" s="1">
+        <v>0</v>
+      </c>
+      <c r="N27" s="1">
+        <v>0</v>
+      </c>
+      <c r="O27" s="1">
+        <v>0</v>
+      </c>
+      <c r="P27" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>0</v>
+      </c>
+      <c r="R27" s="1">
+        <v>0</v>
+      </c>
+      <c r="S27" s="1">
+        <v>0</v>
+      </c>
+      <c r="T27" s="1">
+        <v>0</v>
+      </c>
+      <c r="U27" s="1">
+        <v>0</v>
+      </c>
+      <c r="V27" s="1">
+        <v>0</v>
+      </c>
+      <c r="W27" s="1">
+        <v>0</v>
+      </c>
+      <c r="X27" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ27" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA27" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB27" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC27" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD27" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE27" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF27" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG27" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH27" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI27" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ27" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK27" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL27" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM27" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN27" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO27" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP27" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ27" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR27" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS27" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT27" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU27" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV27" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW27" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX27" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY27" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ27" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA27" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB27" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC27" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD27" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE27" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF27" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG27" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH27" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI27" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ27" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK27" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL27" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM27" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN27" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO27" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP27" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ27" s="1">
+        <v>0</v>
+      </c>
+      <c r="CR27" s="1">
+        <v>0</v>
+      </c>
+      <c r="CS27" s="1">
+        <v>0</v>
+      </c>
+      <c r="CT27" s="1">
+        <v>0</v>
+      </c>
+      <c r="CU27" s="1">
+        <v>0</v>
+      </c>
+      <c r="CV27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:100" x14ac:dyDescent="0.15">
+      <c r="A28" s="1">
+        <v>0</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0</v>
+      </c>
+      <c r="L28" s="1">
+        <v>0</v>
+      </c>
+      <c r="M28" s="1">
+        <v>0</v>
+      </c>
+      <c r="N28" s="1">
+        <v>0</v>
+      </c>
+      <c r="O28" s="1">
+        <v>0</v>
+      </c>
+      <c r="P28" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>0</v>
+      </c>
+      <c r="R28" s="1">
+        <v>0</v>
+      </c>
+      <c r="S28" s="1">
+        <v>0</v>
+      </c>
+      <c r="T28" s="1">
+        <v>0</v>
+      </c>
+      <c r="U28" s="1">
+        <v>0</v>
+      </c>
+      <c r="V28" s="1">
+        <v>0</v>
+      </c>
+      <c r="W28" s="1">
+        <v>0</v>
+      </c>
+      <c r="X28" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ28" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA28" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB28" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC28" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD28" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE28" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF28" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG28" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH28" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI28" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ28" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK28" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL28" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM28" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN28" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO28" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP28" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ28" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR28" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS28" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT28" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU28" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV28" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW28" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX28" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY28" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ28" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA28" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB28" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC28" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD28" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE28" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF28" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG28" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH28" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI28" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ28" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK28" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL28" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM28" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN28" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO28" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP28" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ28" s="1">
+        <v>0</v>
+      </c>
+      <c r="CR28" s="1">
+        <v>0</v>
+      </c>
+      <c r="CS28" s="1">
+        <v>0</v>
+      </c>
+      <c r="CT28" s="1">
+        <v>0</v>
+      </c>
+      <c r="CU28" s="1">
+        <v>0</v>
+      </c>
+      <c r="CV28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:100" x14ac:dyDescent="0.15">
+      <c r="A29" s="1">
+        <v>0</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0</v>
+      </c>
+      <c r="L29" s="1">
+        <v>0</v>
+      </c>
+      <c r="M29" s="1">
+        <v>0</v>
+      </c>
+      <c r="N29" s="1">
+        <v>0</v>
+      </c>
+      <c r="O29" s="1">
+        <v>0</v>
+      </c>
+      <c r="P29" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>0</v>
+      </c>
+      <c r="R29" s="1">
+        <v>0</v>
+      </c>
+      <c r="S29" s="1">
+        <v>0</v>
+      </c>
+      <c r="T29" s="1">
+        <v>0</v>
+      </c>
+      <c r="U29" s="1">
+        <v>0</v>
+      </c>
+      <c r="V29" s="1">
+        <v>0</v>
+      </c>
+      <c r="W29" s="1">
+        <v>0</v>
+      </c>
+      <c r="X29" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ29" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA29" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB29" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC29" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD29" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE29" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF29" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG29" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH29" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI29" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ29" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK29" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL29" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM29" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN29" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO29" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP29" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ29" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR29" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS29" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT29" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU29" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV29" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW29" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX29" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY29" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ29" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA29" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB29" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC29" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD29" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE29" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF29" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG29" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH29" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI29" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ29" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK29" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL29" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM29" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN29" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO29" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP29" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ29" s="1">
+        <v>0</v>
+      </c>
+      <c r="CR29" s="1">
+        <v>0</v>
+      </c>
+      <c r="CS29" s="1">
+        <v>0</v>
+      </c>
+      <c r="CT29" s="1">
+        <v>0</v>
+      </c>
+      <c r="CU29" s="1">
+        <v>0</v>
+      </c>
+      <c r="CV29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:100" x14ac:dyDescent="0.15">
+      <c r="A30" s="1">
+        <v>0</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0</v>
+      </c>
+      <c r="K30" s="1">
+        <v>0</v>
+      </c>
+      <c r="L30" s="1">
+        <v>0</v>
+      </c>
+      <c r="M30" s="1">
+        <v>0</v>
+      </c>
+      <c r="N30" s="1">
+        <v>0</v>
+      </c>
+      <c r="O30" s="1">
+        <v>0</v>
+      </c>
+      <c r="P30" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>0</v>
+      </c>
+      <c r="R30" s="1">
+        <v>0</v>
+      </c>
+      <c r="S30" s="1">
+        <v>0</v>
+      </c>
+      <c r="T30" s="1">
+        <v>0</v>
+      </c>
+      <c r="U30" s="1">
+        <v>0</v>
+      </c>
+      <c r="V30" s="1">
+        <v>0</v>
+      </c>
+      <c r="W30" s="1">
+        <v>0</v>
+      </c>
+      <c r="X30" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ30" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA30" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB30" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC30" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD30" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE30" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF30" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG30" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH30" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI30" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ30" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK30" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL30" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM30" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN30" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO30" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP30" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ30" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR30" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS30" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT30" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU30" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV30" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW30" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX30" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY30" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ30" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA30" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB30" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC30" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD30" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE30" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF30" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG30" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH30" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI30" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ30" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK30" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL30" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM30" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN30" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO30" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP30" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ30" s="1">
+        <v>0</v>
+      </c>
+      <c r="CR30" s="1">
+        <v>0</v>
+      </c>
+      <c r="CS30" s="1">
+        <v>0</v>
+      </c>
+      <c r="CT30" s="1">
+        <v>0</v>
+      </c>
+      <c r="CU30" s="1">
+        <v>0</v>
+      </c>
+      <c r="CV30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:100" x14ac:dyDescent="0.15">
+      <c r="A31" s="1">
+        <v>0</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0</v>
+      </c>
+      <c r="J31" s="1">
+        <v>0</v>
+      </c>
+      <c r="K31" s="1">
+        <v>0</v>
+      </c>
+      <c r="L31" s="1">
+        <v>0</v>
+      </c>
+      <c r="M31" s="1">
+        <v>0</v>
+      </c>
+      <c r="N31" s="1">
+        <v>0</v>
+      </c>
+      <c r="O31" s="1">
+        <v>0</v>
+      </c>
+      <c r="P31" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>0</v>
+      </c>
+      <c r="R31" s="1">
+        <v>0</v>
+      </c>
+      <c r="S31" s="1">
+        <v>0</v>
+      </c>
+      <c r="T31" s="1">
+        <v>0</v>
+      </c>
+      <c r="U31" s="1">
+        <v>0</v>
+      </c>
+      <c r="V31" s="1">
+        <v>0</v>
+      </c>
+      <c r="W31" s="1">
+        <v>0</v>
+      </c>
+      <c r="X31" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ31" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA31" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB31" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC31" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD31" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE31" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF31" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG31" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH31" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI31" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ31" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK31" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL31" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM31" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN31" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO31" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP31" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ31" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR31" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS31" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT31" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU31" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV31" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW31" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX31" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY31" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ31" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA31" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB31" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC31" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD31" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE31" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF31" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG31" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH31" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI31" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ31" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK31" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL31" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM31" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN31" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO31" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP31" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ31" s="1">
+        <v>0</v>
+      </c>
+      <c r="CR31" s="1">
+        <v>0</v>
+      </c>
+      <c r="CS31" s="1">
+        <v>0</v>
+      </c>
+      <c r="CT31" s="1">
+        <v>0</v>
+      </c>
+      <c r="CU31" s="1">
+        <v>0</v>
+      </c>
+      <c r="CV31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:100" x14ac:dyDescent="0.15">
+      <c r="A32" s="1">
+        <v>0</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0</v>
+      </c>
+      <c r="K32" s="1">
+        <v>0</v>
+      </c>
+      <c r="L32" s="1">
+        <v>0</v>
+      </c>
+      <c r="M32" s="1">
+        <v>0</v>
+      </c>
+      <c r="N32" s="1">
+        <v>0</v>
+      </c>
+      <c r="O32" s="1">
+        <v>0</v>
+      </c>
+      <c r="P32" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>0</v>
+      </c>
+      <c r="R32" s="1">
+        <v>0</v>
+      </c>
+      <c r="S32" s="1">
+        <v>0</v>
+      </c>
+      <c r="T32" s="1">
+        <v>0</v>
+      </c>
+      <c r="U32" s="1">
+        <v>0</v>
+      </c>
+      <c r="V32" s="1">
+        <v>0</v>
+      </c>
+      <c r="W32" s="1">
+        <v>0</v>
+      </c>
+      <c r="X32" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ32" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA32" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB32" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC32" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD32" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE32" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF32" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG32" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH32" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI32" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ32" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK32" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL32" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM32" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN32" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO32" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP32" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ32" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR32" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS32" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT32" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU32" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV32" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW32" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX32" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY32" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ32" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA32" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB32" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC32" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD32" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE32" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF32" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG32" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH32" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI32" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ32" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK32" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL32" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM32" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN32" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO32" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP32" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ32" s="1">
+        <v>0</v>
+      </c>
+      <c r="CR32" s="1">
+        <v>0</v>
+      </c>
+      <c r="CS32" s="1">
+        <v>0</v>
+      </c>
+      <c r="CT32" s="1">
+        <v>0</v>
+      </c>
+      <c r="CU32" s="1">
+        <v>0</v>
+      </c>
+      <c r="CV32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:100" x14ac:dyDescent="0.15">
+      <c r="A33" s="1">
+        <v>0</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0</v>
+      </c>
+      <c r="K33" s="1">
+        <v>0</v>
+      </c>
+      <c r="L33" s="1">
+        <v>0</v>
+      </c>
+      <c r="M33" s="1">
+        <v>0</v>
+      </c>
+      <c r="N33" s="1">
+        <v>0</v>
+      </c>
+      <c r="O33" s="1">
+        <v>0</v>
+      </c>
+      <c r="P33" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>0</v>
+      </c>
+      <c r="R33" s="1">
+        <v>0</v>
+      </c>
+      <c r="S33" s="1">
+        <v>0</v>
+      </c>
+      <c r="T33" s="1">
+        <v>0</v>
+      </c>
+      <c r="U33" s="1">
+        <v>0</v>
+      </c>
+      <c r="V33" s="1">
+        <v>0</v>
+      </c>
+      <c r="W33" s="1">
+        <v>0</v>
+      </c>
+      <c r="X33" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ33" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA33" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB33" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC33" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD33" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE33" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF33" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG33" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH33" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI33" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ33" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK33" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL33" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM33" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN33" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO33" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP33" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ33" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR33" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS33" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT33" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU33" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV33" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW33" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX33" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY33" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ33" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA33" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB33" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC33" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD33" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE33" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF33" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG33" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH33" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI33" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ33" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK33" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL33" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM33" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN33" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO33" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP33" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ33" s="1">
+        <v>0</v>
+      </c>
+      <c r="CR33" s="1">
+        <v>0</v>
+      </c>
+      <c r="CS33" s="1">
+        <v>0</v>
+      </c>
+      <c r="CT33" s="1">
+        <v>0</v>
+      </c>
+      <c r="CU33" s="1">
+        <v>0</v>
+      </c>
+      <c r="CV33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:100" x14ac:dyDescent="0.15">
+      <c r="A34" s="1">
+        <v>0</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0</v>
+      </c>
+      <c r="K34" s="1">
+        <v>0</v>
+      </c>
+      <c r="L34" s="1">
+        <v>0</v>
+      </c>
+      <c r="M34" s="1">
+        <v>0</v>
+      </c>
+      <c r="N34" s="1">
+        <v>0</v>
+      </c>
+      <c r="O34" s="1">
+        <v>0</v>
+      </c>
+      <c r="P34" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>0</v>
+      </c>
+      <c r="R34" s="1">
+        <v>0</v>
+      </c>
+      <c r="S34" s="1">
+        <v>0</v>
+      </c>
+      <c r="T34" s="1">
+        <v>0</v>
+      </c>
+      <c r="U34" s="1">
+        <v>0</v>
+      </c>
+      <c r="V34" s="1">
+        <v>0</v>
+      </c>
+      <c r="W34" s="1">
+        <v>0</v>
+      </c>
+      <c r="X34" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ34" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA34" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB34" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC34" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD34" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE34" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF34" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG34" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH34" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI34" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ34" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK34" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL34" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM34" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN34" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO34" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP34" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ34" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR34" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS34" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT34" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU34" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV34" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW34" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX34" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY34" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ34" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA34" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB34" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC34" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD34" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE34" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF34" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG34" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH34" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI34" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ34" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK34" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL34" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM34" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN34" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO34" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP34" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ34" s="1">
+        <v>0</v>
+      </c>
+      <c r="CR34" s="1">
+        <v>0</v>
+      </c>
+      <c r="CS34" s="1">
+        <v>0</v>
+      </c>
+      <c r="CT34" s="1">
+        <v>0</v>
+      </c>
+      <c r="CU34" s="1">
+        <v>0</v>
+      </c>
+      <c r="CV34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:100" x14ac:dyDescent="0.15">
+      <c r="A35" s="1">
+        <v>0</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0</v>
+      </c>
+      <c r="J35" s="1">
+        <v>0</v>
+      </c>
+      <c r="K35" s="1">
+        <v>0</v>
+      </c>
+      <c r="L35" s="1">
+        <v>0</v>
+      </c>
+      <c r="M35" s="1">
+        <v>0</v>
+      </c>
+      <c r="N35" s="1">
+        <v>0</v>
+      </c>
+      <c r="O35" s="1">
+        <v>0</v>
+      </c>
+      <c r="P35" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>0</v>
+      </c>
+      <c r="R35" s="1">
+        <v>0</v>
+      </c>
+      <c r="S35" s="1">
+        <v>0</v>
+      </c>
+      <c r="T35" s="1">
+        <v>0</v>
+      </c>
+      <c r="U35" s="1">
+        <v>0</v>
+      </c>
+      <c r="V35" s="1">
+        <v>0</v>
+      </c>
+      <c r="W35" s="1">
+        <v>0</v>
+      </c>
+      <c r="X35" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ35" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA35" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB35" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC35" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD35" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE35" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF35" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG35" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH35" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI35" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ35" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK35" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL35" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM35" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN35" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO35" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP35" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ35" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR35" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS35" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT35" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU35" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV35" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW35" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX35" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY35" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ35" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA35" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB35" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC35" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD35" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE35" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF35" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG35" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH35" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI35" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ35" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK35" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL35" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM35" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN35" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO35" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP35" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ35" s="1">
+        <v>0</v>
+      </c>
+      <c r="CR35" s="1">
+        <v>0</v>
+      </c>
+      <c r="CS35" s="1">
+        <v>0</v>
+      </c>
+      <c r="CT35" s="1">
+        <v>0</v>
+      </c>
+      <c r="CU35" s="1">
+        <v>0</v>
+      </c>
+      <c r="CV35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:100" x14ac:dyDescent="0.15">
+      <c r="A36" s="1">
+        <v>0</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0</v>
+      </c>
+      <c r="K36" s="1">
+        <v>0</v>
+      </c>
+      <c r="L36" s="1">
+        <v>0</v>
+      </c>
+      <c r="M36" s="1">
+        <v>0</v>
+      </c>
+      <c r="N36" s="1">
+        <v>0</v>
+      </c>
+      <c r="O36" s="1">
+        <v>0</v>
+      </c>
+      <c r="P36" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>0</v>
+      </c>
+      <c r="R36" s="1">
+        <v>0</v>
+      </c>
+      <c r="S36" s="1">
+        <v>0</v>
+      </c>
+      <c r="T36" s="1">
+        <v>0</v>
+      </c>
+      <c r="U36" s="1">
+        <v>0</v>
+      </c>
+      <c r="V36" s="1">
+        <v>0</v>
+      </c>
+      <c r="W36" s="1">
+        <v>0</v>
+      </c>
+      <c r="X36" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ36" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA36" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB36" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC36" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD36" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE36" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF36" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG36" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH36" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI36" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ36" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK36" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL36" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM36" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN36" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO36" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP36" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ36" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR36" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS36" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT36" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU36" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV36" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW36" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX36" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY36" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ36" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA36" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB36" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC36" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD36" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE36" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF36" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG36" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH36" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI36" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ36" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK36" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL36" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM36" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN36" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO36" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP36" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ36" s="1">
+        <v>0</v>
+      </c>
+      <c r="CR36" s="1">
+        <v>0</v>
+      </c>
+      <c r="CS36" s="1">
+        <v>0</v>
+      </c>
+      <c r="CT36" s="1">
+        <v>0</v>
+      </c>
+      <c r="CU36" s="1">
+        <v>0</v>
+      </c>
+      <c r="CV36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:100" x14ac:dyDescent="0.15">
+      <c r="A37" s="1">
+        <v>0</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0</v>
+      </c>
+      <c r="K37" s="1">
+        <v>0</v>
+      </c>
+      <c r="L37" s="1">
+        <v>0</v>
+      </c>
+      <c r="M37" s="1">
+        <v>0</v>
+      </c>
+      <c r="N37" s="1">
+        <v>0</v>
+      </c>
+      <c r="O37" s="1">
+        <v>0</v>
+      </c>
+      <c r="P37" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>0</v>
+      </c>
+      <c r="R37" s="1">
+        <v>0</v>
+      </c>
+      <c r="S37" s="1">
+        <v>0</v>
+      </c>
+      <c r="T37" s="1">
+        <v>0</v>
+      </c>
+      <c r="U37" s="1">
+        <v>0</v>
+      </c>
+      <c r="V37" s="1">
+        <v>0</v>
+      </c>
+      <c r="W37" s="1">
+        <v>0</v>
+      </c>
+      <c r="X37" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ37" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA37" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB37" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC37" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD37" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE37" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF37" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG37" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH37" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI37" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ37" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK37" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL37" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM37" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN37" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO37" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP37" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ37" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR37" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS37" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT37" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU37" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV37" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW37" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX37" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY37" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ37" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA37" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB37" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC37" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD37" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE37" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF37" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG37" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH37" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI37" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ37" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK37" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL37" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM37" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN37" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO37" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP37" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ37" s="1">
+        <v>0</v>
+      </c>
+      <c r="CR37" s="1">
+        <v>0</v>
+      </c>
+      <c r="CS37" s="1">
+        <v>0</v>
+      </c>
+      <c r="CT37" s="1">
+        <v>0</v>
+      </c>
+      <c r="CU37" s="1">
+        <v>0</v>
+      </c>
+      <c r="CV37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:100" x14ac:dyDescent="0.15">
+      <c r="A38" s="1">
+        <v>0</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0</v>
+      </c>
+      <c r="J38" s="1">
+        <v>0</v>
+      </c>
+      <c r="K38" s="1">
+        <v>0</v>
+      </c>
+      <c r="L38" s="1">
+        <v>0</v>
+      </c>
+      <c r="M38" s="1">
+        <v>0</v>
+      </c>
+      <c r="N38" s="1">
+        <v>0</v>
+      </c>
+      <c r="O38" s="1">
+        <v>0</v>
+      </c>
+      <c r="P38" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>0</v>
+      </c>
+      <c r="R38" s="1">
+        <v>0</v>
+      </c>
+      <c r="S38" s="1">
+        <v>0</v>
+      </c>
+      <c r="T38" s="1">
+        <v>0</v>
+      </c>
+      <c r="U38" s="1">
+        <v>0</v>
+      </c>
+      <c r="V38" s="1">
+        <v>0</v>
+      </c>
+      <c r="W38" s="1">
+        <v>0</v>
+      </c>
+      <c r="X38" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ38" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA38" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB38" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC38" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD38" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE38" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF38" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG38" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH38" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI38" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ38" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK38" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL38" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM38" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN38" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO38" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP38" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ38" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR38" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS38" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT38" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU38" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV38" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW38" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX38" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY38" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ38" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA38" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB38" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC38" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD38" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE38" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF38" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG38" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH38" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI38" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ38" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK38" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL38" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM38" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN38" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO38" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP38" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ38" s="1">
+        <v>0</v>
+      </c>
+      <c r="CR38" s="1">
+        <v>0</v>
+      </c>
+      <c r="CS38" s="1">
+        <v>0</v>
+      </c>
+      <c r="CT38" s="1">
+        <v>0</v>
+      </c>
+      <c r="CU38" s="1">
+        <v>0</v>
+      </c>
+      <c r="CV38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:100" x14ac:dyDescent="0.15">
+      <c r="A39" s="1">
+        <v>0</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0</v>
+      </c>
+      <c r="J39" s="1">
+        <v>0</v>
+      </c>
+      <c r="K39" s="1">
+        <v>0</v>
+      </c>
+      <c r="L39" s="1">
+        <v>0</v>
+      </c>
+      <c r="M39" s="1">
+        <v>0</v>
+      </c>
+      <c r="N39" s="1">
+        <v>0</v>
+      </c>
+      <c r="O39" s="1">
+        <v>0</v>
+      </c>
+      <c r="P39" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>0</v>
+      </c>
+      <c r="R39" s="1">
+        <v>0</v>
+      </c>
+      <c r="S39" s="1">
+        <v>0</v>
+      </c>
+      <c r="T39" s="1">
+        <v>0</v>
+      </c>
+      <c r="U39" s="1">
+        <v>0</v>
+      </c>
+      <c r="V39" s="1">
+        <v>0</v>
+      </c>
+      <c r="W39" s="1">
+        <v>0</v>
+      </c>
+      <c r="X39" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ39" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA39" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB39" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC39" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD39" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE39" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF39" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG39" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH39" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI39" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ39" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK39" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL39" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM39" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN39" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO39" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP39" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ39" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR39" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS39" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT39" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU39" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV39" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW39" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX39" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY39" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ39" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA39" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB39" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC39" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD39" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE39" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF39" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG39" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH39" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI39" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ39" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK39" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL39" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM39" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN39" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO39" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP39" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ39" s="1">
+        <v>0</v>
+      </c>
+      <c r="CR39" s="1">
+        <v>0</v>
+      </c>
+      <c r="CS39" s="1">
+        <v>0</v>
+      </c>
+      <c r="CT39" s="1">
+        <v>0</v>
+      </c>
+      <c r="CU39" s="1">
+        <v>0</v>
+      </c>
+      <c r="CV39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:100" x14ac:dyDescent="0.15">
+      <c r="A40" s="1">
+        <v>0</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0</v>
+      </c>
+      <c r="J40" s="1">
+        <v>0</v>
+      </c>
+      <c r="K40" s="1">
+        <v>0</v>
+      </c>
+      <c r="L40" s="1">
+        <v>0</v>
+      </c>
+      <c r="M40" s="1">
+        <v>0</v>
+      </c>
+      <c r="N40" s="1">
+        <v>0</v>
+      </c>
+      <c r="O40" s="1">
+        <v>0</v>
+      </c>
+      <c r="P40" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>0</v>
+      </c>
+      <c r="R40" s="1">
+        <v>0</v>
+      </c>
+      <c r="S40" s="1">
+        <v>0</v>
+      </c>
+      <c r="T40" s="1">
+        <v>0</v>
+      </c>
+      <c r="U40" s="1">
+        <v>0</v>
+      </c>
+      <c r="V40" s="1">
+        <v>0</v>
+      </c>
+      <c r="W40" s="1">
+        <v>0</v>
+      </c>
+      <c r="X40" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ40" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA40" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB40" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC40" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD40" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE40" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF40" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG40" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH40" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI40" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ40" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK40" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL40" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM40" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN40" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO40" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP40" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ40" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR40" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS40" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT40" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU40" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV40" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW40" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX40" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY40" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ40" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA40" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB40" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC40" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD40" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE40" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF40" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG40" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH40" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI40" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ40" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK40" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL40" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM40" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN40" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO40" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP40" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ40" s="1">
+        <v>0</v>
+      </c>
+      <c r="CR40" s="1">
+        <v>0</v>
+      </c>
+      <c r="CS40" s="1">
+        <v>0</v>
+      </c>
+      <c r="CT40" s="1">
+        <v>0</v>
+      </c>
+      <c r="CU40" s="1">
+        <v>0</v>
+      </c>
+      <c r="CV40" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:CV20">
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="13" operator="equal">
       <formula>23</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="15" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="17" priority="16" operator="between">
       <formula>14</formula>
       <formula>22</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="18" operator="equal">
       <formula>99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="21" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="22" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="23" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:CV20">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="14" operator="equal">
       <formula>13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="between">
       <formula>60</formula>
       <formula>69</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="between">
       <formula>50</formula>
       <formula>59</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK11">
+    <cfRule type="cellIs" dxfId="20" priority="10" operator="between">
+      <formula>40</formula>
+      <formula>49</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21:CV40">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+      <formula>23</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="between">
+      <formula>14</formula>
+      <formula>22</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+      <formula>99</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="8" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="9" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21:CV40">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>13</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Project1/Project1/ギミック確認.xlsx
+++ b/Project1/Project1/ギミック確認.xlsx
@@ -86,7 +86,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="30">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -154,30 +154,6 @@
       <fill>
         <patternFill>
           <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFFF0000"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF99CC00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -635,8 +611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="CT5" sqref="CT5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1456,7 +1432,7 @@
         <v>43</v>
       </c>
       <c r="BQ3" s="1">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="BR3" s="1">
         <v>0</v>
@@ -1653,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="AH4" s="1">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="AI4" s="1">
         <v>65</v>
@@ -1776,13 +1752,13 @@
         <v>0</v>
       </c>
       <c r="BW4" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BY4" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BZ4" s="1">
         <v>0</v>
@@ -1791,13 +1767,13 @@
         <v>0</v>
       </c>
       <c r="CB4" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="CD4" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CE4" s="1">
         <v>0</v>
@@ -1827,13 +1803,13 @@
         <v>0</v>
       </c>
       <c r="CN4" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="CO4" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="CP4" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CQ4" s="1">
         <v>0</v>
@@ -2000,7 +1976,7 @@
         <v>0</v>
       </c>
       <c r="AW5" s="1">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AX5" s="1">
         <v>0</v>
@@ -2078,13 +2054,13 @@
         <v>0</v>
       </c>
       <c r="BW5" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BY5" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BZ5" s="1">
         <v>0</v>
@@ -2093,13 +2069,13 @@
         <v>0</v>
       </c>
       <c r="CB5" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="CD5" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CE5" s="1">
         <v>0</v>
@@ -2129,13 +2105,13 @@
         <v>0</v>
       </c>
       <c r="CN5" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="CO5" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="CP5" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CQ5" s="1">
         <v>0</v>
@@ -2449,7 +2425,7 @@
         <v>0</v>
       </c>
       <c r="CT6" s="1">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="CU6" s="1">
         <v>1</v>
@@ -3671,7 +3647,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="1">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
@@ -4583,7 +4559,7 @@
         <v>100</v>
       </c>
       <c r="D14" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E14" s="1">
         <v>61</v>
@@ -4592,13 +4568,13 @@
         <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="H14" s="1">
         <v>0</v>
       </c>
       <c r="I14" s="1">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="J14" s="1">
         <v>0</v>
@@ -4748,7 +4724,7 @@
         <v>0</v>
       </c>
       <c r="BG14" s="1">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="BH14" s="1">
         <v>0</v>
@@ -4775,7 +4751,7 @@
         <v>0</v>
       </c>
       <c r="BP14" s="1">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="BQ14" s="1">
         <v>0</v>
@@ -4850,7 +4826,7 @@
         <v>1</v>
       </c>
       <c r="CO14" s="1">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="CP14" s="1">
         <v>0</v>
@@ -6225,7 +6201,7 @@
         <v>0</v>
       </c>
       <c r="AV19" s="1">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AW19" s="1">
         <v>0</v>
@@ -6524,10 +6500,10 @@
         <v>1</v>
       </c>
       <c r="AU20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW20" s="1">
         <v>0</v>
@@ -6650,13 +6626,13 @@
         <v>1</v>
       </c>
       <c r="CK20" s="1">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="CL20" s="1">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="CM20" s="1">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="CN20" s="1">
         <v>1</v>
@@ -12388,7 +12364,7 @@
         <v>0</v>
       </c>
       <c r="CK39" s="1">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="CL39" s="1">
         <v>0</v>
@@ -12729,54 +12705,86 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:CV20">
-    <cfRule type="cellIs" dxfId="19" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="22" operator="equal">
       <formula>23</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="24" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="16" operator="between">
+    <cfRule type="cellIs" dxfId="27" priority="25" operator="between">
       <formula>14</formula>
       <formula>22</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="27" operator="equal">
       <formula>99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="30" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="31" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="32" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:CV20">
-    <cfRule type="cellIs" dxfId="11" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
       <formula>13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="between">
+    <cfRule type="cellIs" dxfId="20" priority="20" operator="between">
       <formula>60</formula>
       <formula>69</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="12" operator="between">
+    <cfRule type="cellIs" dxfId="19" priority="21" operator="between">
       <formula>50</formula>
       <formula>59</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK11">
-    <cfRule type="cellIs" dxfId="20" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="18" priority="19" operator="between">
       <formula>40</formula>
       <formula>49</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:CV40">
+    <cfRule type="cellIs" dxfId="17" priority="10" operator="equal">
+      <formula>23</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="12" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="13" operator="between">
+      <formula>14</formula>
+      <formula>22</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
+      <formula>99</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="17" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="18" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21:CV40">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BW24:BZ26">
     <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>23</formula>
     </cfRule>
@@ -12803,7 +12811,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A21:CV40">
+  <conditionalFormatting sqref="BW24:BZ26">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>13</formula>
     </cfRule>
